--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,17 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -595,153 +602,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,59 +1104,59 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1265,7 +1275,7 @@
   <sheetPr/>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="19455" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -57,7 +57,31 @@
     <t>领导的属性</t>
   </si>
   <si>
-    <t>领导的类型</t>
+    <t>历史进程为标准</t>
+  </si>
+  <si>
+    <t>行为方式和特征为标准</t>
+  </si>
+  <si>
+    <t>生产关系为标准</t>
+  </si>
+  <si>
+    <t>以工作领域为标准</t>
+  </si>
+  <si>
+    <t>领导成员为标准</t>
+  </si>
+  <si>
+    <t>领导的层次为标准</t>
+  </si>
+  <si>
+    <t>领导工作的重心为尺度</t>
+  </si>
+  <si>
+    <t>领导所拥有的权力和影响的来源为依据</t>
+  </si>
+  <si>
+    <t>领导手段为标准</t>
   </si>
   <si>
     <t>领导的基础</t>
@@ -130,7 +154,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,14 +171,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -162,21 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,83 +307,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -306,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,16 +518,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +549,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -553,23 +561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,8 +570,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,153 +590,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1121,7 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1170,71 +1187,71 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1261,6 +1278,46 @@
     <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1283,37 +1340,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="7740" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -150,8 +150,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -171,6 +171,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,6 +185,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,6 +254,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -192,48 +269,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +293,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,51 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +514,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,21 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -554,39 +569,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +596,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,145 +622,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,8 +1189,8 @@
   <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1256,67 +1256,67 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1332,19 +1332,19 @@
   <sheetPr/>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
     </row>

--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -4,19 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
     <sheet name="第二章" sheetId="2" r:id="rId2"/>
     <sheet name="第三章" sheetId="3" r:id="rId3"/>
+    <sheet name="第四章" sheetId="4" r:id="rId4"/>
+    <sheet name="第五章" sheetId="5" r:id="rId5"/>
+    <sheet name=" 第六章" sheetId="6" r:id="rId6"/>
+    <sheet name="第七章" sheetId="7" r:id="rId7"/>
+    <sheet name="第八章" sheetId="8" r:id="rId8"/>
+    <sheet name="第九章" sheetId="9" r:id="rId9"/>
+    <sheet name="第十章" sheetId="10" r:id="rId10"/>
+    <sheet name="第十一章" sheetId="11" r:id="rId11"/>
+    <sheet name="第十二章" sheetId="12" r:id="rId12"/>
+    <sheet name="第十三章" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -142,6 +152,648 @@
   </si>
   <si>
     <t>领导的基本原则</t>
+  </si>
+  <si>
+    <t>领导观念的基本内涵</t>
+  </si>
+  <si>
+    <t>现代领导观念的基本特征</t>
+  </si>
+  <si>
+    <t>领导观念的重要作用</t>
+  </si>
+  <si>
+    <t>政治观念的基本内涵</t>
+  </si>
+  <si>
+    <t>人本观念的基本内涵</t>
+  </si>
+  <si>
+    <t>权力观念的基本内涵</t>
+  </si>
+  <si>
+    <t>法制观念的基本内涵</t>
+  </si>
+  <si>
+    <t>市场经济观念的基本内涵</t>
+  </si>
+  <si>
+    <t>改革创新观念的基本内涵</t>
+  </si>
+  <si>
+    <t>领导者树立政治观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立权力观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立改革创新观念的必要性</t>
+  </si>
+  <si>
+    <t>领导者树立正确的政治观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立人本观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立正确的权利观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立法治观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立现代市场经济观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立科学的改革创新观念的基本要求</t>
+  </si>
+  <si>
+    <t>领导者树立科学的政绩观念的基本要求</t>
+  </si>
+  <si>
+    <t>决策的含义</t>
+  </si>
+  <si>
+    <t>决策的构成要素</t>
+  </si>
+  <si>
+    <t>决策的基本特征</t>
+  </si>
+  <si>
+    <t>经验决策特点</t>
+  </si>
+  <si>
+    <t>科学决策的特点</t>
+  </si>
+  <si>
+    <t>决策的分类</t>
+  </si>
+  <si>
+    <t>决策的模式</t>
+  </si>
+  <si>
+    <t>德尔菲法特点</t>
+  </si>
+  <si>
+    <t>头脑风暴法的含义</t>
+  </si>
+  <si>
+    <t>试验决策法的含义</t>
+  </si>
+  <si>
+    <t>科学决策的基本标准</t>
+  </si>
+  <si>
+    <t>科学决策的基本原则</t>
+  </si>
+  <si>
+    <t>追踪决策的特征</t>
+  </si>
+  <si>
+    <t>头脑风暴法必须遵循的原则</t>
+  </si>
+  <si>
+    <t>科学决策的程序</t>
+  </si>
+  <si>
+    <t>德尔菲法的实施步骤</t>
+  </si>
+  <si>
+    <t>决策树法的步骤</t>
+  </si>
+  <si>
+    <t>决策体质的内涵</t>
+  </si>
+  <si>
+    <t>决策体质的构成</t>
+  </si>
+  <si>
+    <t>集体抉择含义</t>
+  </si>
+  <si>
+    <t>个人决策的含义</t>
+  </si>
+  <si>
+    <t>危机决策的内涵</t>
+  </si>
+  <si>
+    <t>现代决策体质系统</t>
+  </si>
+  <si>
+    <t>领导者在决策活动中的主要职责</t>
+  </si>
+  <si>
+    <t>集体决策需要注意的问题，对领导决策的基本要求</t>
+  </si>
+  <si>
+    <t>领导者与智囊团的关系</t>
+  </si>
+  <si>
+    <t>领导者危机决策的基本要求</t>
+  </si>
+  <si>
+    <t>领导者在决策过程中发挥智囊团的作用</t>
+  </si>
+  <si>
+    <t>领导者进行危机决策的方法</t>
+  </si>
+  <si>
+    <t>领导者科学决策的原则和方法</t>
+  </si>
+  <si>
+    <t>人才的特点</t>
+  </si>
+  <si>
+    <t>人才的类型</t>
+  </si>
+  <si>
+    <t>衡量人才的标准</t>
+  </si>
+  <si>
+    <t>选材用人对于现代领导的重要意义</t>
+  </si>
+  <si>
+    <t>选举制的含义</t>
+  </si>
+  <si>
+    <t>考选制的含义</t>
+  </si>
+  <si>
+    <t>荐举制的含义</t>
+  </si>
+  <si>
+    <t>人才选拔的基本原则</t>
+  </si>
+  <si>
+    <t>人才选拔的制度</t>
+  </si>
+  <si>
+    <t>领导者在选拔人才时必须正确处理的关系</t>
+  </si>
+  <si>
+    <t>领导者选拔人才的原则和方法</t>
+  </si>
+  <si>
+    <t>选任制的含义</t>
+  </si>
+  <si>
+    <t>委任制的含义</t>
+  </si>
+  <si>
+    <t>聘任制的含义</t>
+  </si>
+  <si>
+    <t>考核制度的含义</t>
+  </si>
+  <si>
+    <t>奖惩制度的含义</t>
+  </si>
+  <si>
+    <t>交流制度的含义</t>
+  </si>
+  <si>
+    <t>任期制度的含义</t>
+  </si>
+  <si>
+    <t>人才使用的基本原则</t>
+  </si>
+  <si>
+    <t>人才使用的主要制度</t>
+  </si>
+  <si>
+    <t>领导者使用人才的基本原则和方法</t>
+  </si>
+  <si>
+    <t>思想政治工作的含义</t>
+  </si>
+  <si>
+    <t>思想政治工作的对象</t>
+  </si>
+  <si>
+    <t>思想政治工作对领导工作的重要意义</t>
+  </si>
+  <si>
+    <t>政治教育的含义</t>
+  </si>
+  <si>
+    <t>公民素质教育的含义</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本内容</t>
+  </si>
+  <si>
+    <t>政治教育的基本内容</t>
+  </si>
+  <si>
+    <t>公民素质教育的主要内容</t>
+  </si>
+  <si>
+    <t>说理教育法的含义</t>
+  </si>
+  <si>
+    <t>情感交流法的含义</t>
+  </si>
+  <si>
+    <t>个别引到法的含义</t>
+  </si>
+  <si>
+    <t>心里咨询法的含义</t>
+  </si>
+  <si>
+    <t>榜样示范法的含义</t>
+  </si>
+  <si>
+    <t>自我教育法的含义</t>
+  </si>
+  <si>
+    <t>思想政治工作的方针</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本原则</t>
+  </si>
+  <si>
+    <t>思想政治工作的方法</t>
+  </si>
+  <si>
+    <t>领导者开展思想政治工作的方针，原则，方法</t>
+  </si>
+  <si>
+    <t>领导体制的内涵</t>
+  </si>
+  <si>
+    <t>领导体制的特征</t>
+  </si>
+  <si>
+    <t>领导层次的含义</t>
+  </si>
+  <si>
+    <t>领导宽度（幅度）的含义</t>
+  </si>
+  <si>
+    <t>领导体制的二重性</t>
+  </si>
+  <si>
+    <t>领导组织的原则</t>
+  </si>
+  <si>
+    <t>领导组织结构</t>
+  </si>
+  <si>
+    <t>领导的层次与宽度（幅度）的关系</t>
+  </si>
+  <si>
+    <t>领导组织机构的构成</t>
+  </si>
+  <si>
+    <t>领导体制的作用</t>
+  </si>
+  <si>
+    <t>集权制与分权制的含义</t>
+  </si>
+  <si>
+    <t>完整制与分离制的含义</t>
+  </si>
+  <si>
+    <t>一长制与委员会制的含义</t>
+  </si>
+  <si>
+    <t>层次制与职能制的含义</t>
+  </si>
+  <si>
+    <t>资产阶级民主制领导体制的特征</t>
+  </si>
+  <si>
+    <t>集权制与分权制的特有权点</t>
+  </si>
+  <si>
+    <t>完整制与分离制的优缺点</t>
+  </si>
+  <si>
+    <t>一长制与委员会制的优缺点</t>
+  </si>
+  <si>
+    <t>层级制与职能制的优缺点</t>
+  </si>
+  <si>
+    <t>我国现行领导体制的本质特征</t>
+  </si>
+  <si>
+    <t>我国现行领导体制的主要问题</t>
+  </si>
+  <si>
+    <t>我国领导体制改革的原则</t>
+  </si>
+  <si>
+    <t>我国领导体制改革的内容</t>
+  </si>
+  <si>
+    <t>领导者素质的内涵</t>
+  </si>
+  <si>
+    <t>领导者素质的特点</t>
+  </si>
+  <si>
+    <t>领导者素质的重要性</t>
+  </si>
+  <si>
+    <t>【政治素质】的含义</t>
+  </si>
+  <si>
+    <t>【道德素质】的含义</t>
+  </si>
+  <si>
+    <t>【知识素质】的含义</t>
+  </si>
+  <si>
+    <t>领导者【政治素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【法律素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【能力素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【道德素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【知识素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【身心素质】的【内容】</t>
+  </si>
+  <si>
+    <t>领导者提高和培养素质的基本途径</t>
+  </si>
+  <si>
+    <t>当前领导者提高素质的基本方法</t>
+  </si>
+  <si>
+    <t>领导者集体素质结构的含义</t>
+  </si>
+  <si>
+    <t>领导集体素质结构的特征</t>
+  </si>
+  <si>
+    <t>合理的领导集体素质结构的基本内容</t>
+  </si>
+  <si>
+    <t>领导集体素质结构优化的原则</t>
+  </si>
+  <si>
+    <t>优化领导集体素质结构的途径</t>
+  </si>
+  <si>
+    <t>当前中国领导集体素质结构优化的原则和方法</t>
+  </si>
+  <si>
+    <t>领导方法的含义</t>
+  </si>
+  <si>
+    <t>领导方法的特征</t>
+  </si>
+  <si>
+    <t>运用领导方法的重要意义</t>
+  </si>
+  <si>
+    <t>运用领导方法的基本原则</t>
+  </si>
+  <si>
+    <t>战略性思维方法的特征</t>
+  </si>
+  <si>
+    <t>创造性思维的特征</t>
+  </si>
+  <si>
+    <t>创造性思维原理</t>
+  </si>
+  <si>
+    <t>辩证逻辑思维方法</t>
+  </si>
+  <si>
+    <t>系统性思维方法</t>
+  </si>
+  <si>
+    <t>改善战略性思维方法的途径</t>
+  </si>
+  <si>
+    <t>创造性思维方法</t>
+  </si>
+  <si>
+    <t>领导者思维方法的训练和应用</t>
+  </si>
+  <si>
+    <t>典型调查的含义</t>
+  </si>
+  <si>
+    <t>抽样调查的含义</t>
+  </si>
+  <si>
+    <t>普遍调查的含义</t>
+  </si>
+  <si>
+    <t>系统领导法的含义</t>
+  </si>
+  <si>
+    <t>信息方法的含义</t>
+  </si>
+  <si>
+    <t>控制论方法的含义</t>
+  </si>
+  <si>
+    <t>基本领导方法的内容</t>
+  </si>
+  <si>
+    <t>系统论方法的内容</t>
+  </si>
+  <si>
+    <t>信息论方法的内容</t>
+  </si>
+  <si>
+    <t>控制论方法的内容</t>
+  </si>
+  <si>
+    <t>基本领导方法的应用</t>
+  </si>
+  <si>
+    <t>现在科学领导方法的应用</t>
+  </si>
+  <si>
+    <t>系统掌握基本领导方法和现在科学领导方法</t>
+  </si>
+  <si>
+    <t>领导艺术的含义</t>
+  </si>
+  <si>
+    <t>领导艺术的定位</t>
+  </si>
+  <si>
+    <t>领导艺术的特征</t>
+  </si>
+  <si>
+    <t>授权的含义</t>
+  </si>
+  <si>
+    <t>刚性授权的含义</t>
+  </si>
+  <si>
+    <t>惰性授权的含义</t>
+  </si>
+  <si>
+    <t>模糊授权的含义</t>
+  </si>
+  <si>
+    <t>口头授权的含义</t>
+  </si>
+  <si>
+    <t>书面授权的含义</t>
+  </si>
+  <si>
+    <t>突发性事件的含义</t>
+  </si>
+  <si>
+    <t>领导授权的类型</t>
+  </si>
+  <si>
+    <t>正副职的关系定位</t>
+  </si>
+  <si>
+    <t>开会必须遵循的原则</t>
+  </si>
+  <si>
+    <t>突发性事件的特征</t>
+  </si>
+  <si>
+    <t>领导授权的要点</t>
+  </si>
+  <si>
+    <t>领导沟通艺术的基本内容及其要点</t>
+  </si>
+  <si>
+    <t>当好正副职的艺术</t>
+  </si>
+  <si>
+    <t>领导者运筹时间的艺术要点</t>
+  </si>
+  <si>
+    <t>主持会议的技巧</t>
+  </si>
+  <si>
+    <t>处理突发性事件的艺术</t>
+  </si>
+  <si>
+    <t>中国领导者应该具备的领导艺术的要点</t>
+  </si>
+  <si>
+    <t>政客权术的含义</t>
+  </si>
+  <si>
+    <t>领导艺术与政客权术的区别</t>
+  </si>
+  <si>
+    <t>提高领导艺术水平的途径</t>
+  </si>
+  <si>
+    <t>领导作风的含义</t>
+  </si>
+  <si>
+    <t>领导作风的特点</t>
+  </si>
+  <si>
+    <t>领导作风的本质</t>
+  </si>
+  <si>
+    <t>领导作风的意义</t>
+  </si>
+  <si>
+    <t>思想作风的含义</t>
+  </si>
+  <si>
+    <t>学习作风的含义</t>
+  </si>
+  <si>
+    <t>工作作风的含义</t>
+  </si>
+  <si>
+    <t>组织作风的含义</t>
+  </si>
+  <si>
+    <t>生活作风的含义</t>
+  </si>
+  <si>
+    <t>思想作风的基本要求</t>
+  </si>
+  <si>
+    <t>学习作风的基本要求</t>
+  </si>
+  <si>
+    <t>工作作风的基本要求</t>
+  </si>
+  <si>
+    <t>不良领导作风的主要表现</t>
+  </si>
+  <si>
+    <t>加强领导作风建设的途径</t>
+  </si>
+  <si>
+    <t>领导绩效的含义</t>
+  </si>
+  <si>
+    <t>领导绩效的特点</t>
+  </si>
+  <si>
+    <t>领导绩效的基本内容</t>
+  </si>
+  <si>
+    <t>领导绩效的作用</t>
+  </si>
+  <si>
+    <t>领导绩效考评的概念</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型</t>
+  </si>
+  <si>
+    <t>领导绩效考评的意义</t>
+  </si>
+  <si>
+    <t>领导绩效考评的内容</t>
+  </si>
+  <si>
+    <t>目标对照法的含义</t>
+  </si>
+  <si>
+    <t>比较考评发的含义</t>
+  </si>
+  <si>
+    <t>统计分析法的含义</t>
+  </si>
+  <si>
+    <t>自我述职法的含义</t>
+  </si>
+  <si>
+    <t>模拟考评法的含义</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【原则】</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【程序】</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【基本方法】</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【具体方法】</t>
+  </si>
+  <si>
+    <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
   </si>
 </sst>
 </file>
@@ -150,9 +802,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,8 +822,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +889,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,23 +936,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,83 +960,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,25 +975,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,31 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,67 +1035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,13 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +1083,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,32 +1169,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,44 +1210,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +1240,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +1274,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +1286,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,6 +1836,479 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1332,8 +2457,8 @@
   <sheetPr/>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1378,4 +2503,776 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="12"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="882" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -801,10 +801,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -831,7 +831,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,22 +897,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,15 +928,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,70 +960,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,6 +987,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -999,25 +1029,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,6 +1065,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1047,55 +1083,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,13 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,31 +1125,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,15 +1184,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1210,9 +1201,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,6 +1243,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1255,17 +1266,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1274,10 +1274,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1286,133 +1286,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2205,101 +2205,101 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>255</v>
       </c>
     </row>

--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="261">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -757,7 +757,22 @@
     <t>领导绩效考评的概念</t>
   </si>
   <si>
-    <t>领导绩效考评的类型</t>
+    <t>领导绩效考评的类型-层次不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-主体不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-时间不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-对象工作性质不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-方式不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-目的不同</t>
   </si>
   <si>
     <t>领导绩效考评的意义</t>
@@ -802,8 +817,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -822,9 +837,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,22 +851,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,8 +889,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,45 +922,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,27 +937,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -959,8 +952,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,7 +990,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,13 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,49 +1140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,91 +1164,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,17 +1184,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,20 +1210,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,18 +1234,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,6 +1272,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1274,145 +1289,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2205,10 +2220,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2234,73 +2249,98 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>245</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>246</v>
+      <c r="A11" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>247</v>
+      <c r="A12" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="882" activeTab="12"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="882" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -816,8 +816,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -837,13 +837,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -867,71 +913,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,9 +936,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,14 +959,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,7 +990,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,175 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,15 +1181,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1204,15 +1195,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,10 +1216,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1254,6 +1234,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,6 +1272,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1289,10 +1289,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1301,133 +1301,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2223,7 +2223,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2284,12 +2284,12 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>250</v>
       </c>
     </row>

--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C4E61E-9892-4869-8A88-082CE5F42386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="882" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
@@ -814,14 +820,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,352 +830,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1183,317 +873,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1780,1539 +1190,1566 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E1530-C61D-42A1-B22E-1BE9A1ECD711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="882" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
     <sheet name="第二章 领导与领导者，被领导者" sheetId="2" r:id="rId2"/>
-    <sheet name="第三章" sheetId="3" r:id="rId3"/>
-    <sheet name="第四章" sheetId="4" r:id="rId4"/>
-    <sheet name="第五章" sheetId="5" r:id="rId5"/>
+    <sheet name="第三章 领导的职能和原则" sheetId="3" r:id="rId3"/>
+    <sheet name="第四章 领导观念" sheetId="4" r:id="rId4"/>
+    <sheet name="第五章 领导决策" sheetId="5" r:id="rId5"/>
     <sheet name=" 第六章" sheetId="6" r:id="rId6"/>
     <sheet name="第七章" sheetId="7" r:id="rId7"/>
     <sheet name="第八章" sheetId="8" r:id="rId8"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="434">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1064,19 +1070,365 @@
   </si>
   <si>
     <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
+  </si>
+  <si>
+    <t>是领导职责和社会功能，是本质的具体表现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是确定组织机构的重要标志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是领导活动科学化的依据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是领导活动结束的依据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学决策</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选才用人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想政治工作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>能技能职对应，优势定位，结构优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在领导活动中所要坚持的标准和法则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总原则，基本原则，具体原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>党的基本路线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实事求是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主集中制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群众路线原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一领导原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分权原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分层原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统整体原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权责一致原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主公开原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体，分工结合原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导对领导活动中的规律性的本质认识和反应</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持中国民族特色，建设中国特色社会主义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定领导者的领导方式，影响成败</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者对政治本质的认识和看法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>把个人意志强加在其他人行为上的能力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者对市场经济的认识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对改革创新的总体认识和看法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对政治本质的认识和看法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场经济的需要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>密切党群关系的需要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持党性质和宗旨的需要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外工作的需要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导工作中主要矛盾决定的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会主义社会对领导的本质要求决定的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力是领导者执行领导活动的基本和前提</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有权力领导者无法完成使命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须要有决策权和用人权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是依法治国的前提条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是依法行政的首要条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是依法政府必要条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保障人权的需要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学发展</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时代变化的要求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会主义现代化建设的要求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保障事业发展的要求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的政治方向，最终实现共产主义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的政治立场，为人民服务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人民服务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>先人后事</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持人才原则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人尽其才</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才竞争</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文关怀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力来源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权责关系的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力监督</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力行使的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律至上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人平等</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人权保障</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>依法用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人情了解市场经济体制的必然性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解基本规律</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解特征</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要认识改革创新的性质和目的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要明确改革创新的价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持改革创新的立场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持解放思想的思维方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择合理的改革方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是政绩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为谁创政绩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么创造政绩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,350 +1455,40 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1454,255 +1496,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1718,62 +1518,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2060,24 +1822,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +1873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2128,7 +1890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +1898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2144,7 +1906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2155,7 +1917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2166,7 +1928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +1939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2188,7 +1950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2196,7 +1958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2204,573 +1966,568 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="8:8">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="8:8">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>308</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>345</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -2778,7 +2535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -2807,7 +2564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +2593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
@@ -2862,7 +2619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2885,7 +2642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>76</v>
       </c>
@@ -2893,7 +2650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -2904,7 +2661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -2915,7 +2672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -2923,7 +2680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>86</v>
       </c>
@@ -2931,12 +2688,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
@@ -2944,7 +2701,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -2952,12 +2709,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>94</v>
       </c>
@@ -2965,7 +2722,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
@@ -2973,7 +2730,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>98</v>
       </c>
@@ -2981,7 +2738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>100</v>
       </c>
@@ -2989,7 +2746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -2997,7 +2754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>104</v>
       </c>
@@ -3005,7 +2762,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>106</v>
       </c>
@@ -3013,7 +2770,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>108</v>
       </c>
@@ -3021,7 +2778,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>110</v>
       </c>
@@ -3029,7 +2786,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>112</v>
       </c>
@@ -3037,7 +2794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>114</v>
       </c>
@@ -3045,875 +2802,1159 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E26" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E27" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E28" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E29" s="3" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D8" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D9" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D10" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F11" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F12" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F13" s="6" t="s">
+        <v>372</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="F12" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="F13" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="F14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="M16" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M17" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="F18" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="F19" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="F20" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="F22" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="F23" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="F24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F25" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L26" s="6" t="s">
+        <v>429</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E1530-C61D-42A1-B22E-1BE9A1ECD711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="882" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="497">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -397,177 +391,630 @@
     <t>领导职能的含义</t>
   </si>
   <si>
+    <t>是领导职责和社会功能，是本质的具体表现</t>
+  </si>
+  <si>
+    <t>引到</t>
+  </si>
+  <si>
+    <t>科学决策</t>
+  </si>
+  <si>
     <t>领导职能在领导活动中的地位</t>
   </si>
   <si>
+    <t>是确定组织机构的重要标志</t>
+  </si>
+  <si>
+    <t>指挥</t>
+  </si>
+  <si>
+    <t>选才用人</t>
+  </si>
+  <si>
+    <t>能技能职对应，优势定位，结构优化</t>
+  </si>
+  <si>
     <t>领导的一般职能</t>
   </si>
   <si>
+    <t>是领导活动科学化的依据</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>思想政治工作</t>
+  </si>
+  <si>
     <t>当代领导的基本职能</t>
   </si>
   <si>
+    <t>是领导活动结束的依据</t>
+  </si>
+  <si>
+    <t>协调</t>
+  </si>
+  <si>
     <t>领导原则的含义</t>
   </si>
   <si>
+    <t>在领导活动中所要坚持的标准和法则</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
     <t>领导的总原则</t>
   </si>
   <si>
+    <t>总原则，基本原则，具体原则</t>
+  </si>
+  <si>
     <t>领导的基本原则</t>
   </si>
   <si>
+    <t>党的基本路线</t>
+  </si>
+  <si>
+    <t>统一领导原则</t>
+  </si>
+  <si>
+    <t>实事求是</t>
+  </si>
+  <si>
+    <t>分权原则</t>
+  </si>
+  <si>
+    <t>民主集中制</t>
+  </si>
+  <si>
+    <t>分层原则</t>
+  </si>
+  <si>
+    <t>群众路线原则</t>
+  </si>
+  <si>
+    <t>系统整体原则</t>
+  </si>
+  <si>
+    <t>权责一致原则</t>
+  </si>
+  <si>
+    <t>民主公开原则</t>
+  </si>
+  <si>
+    <t>集体，分工结合原则</t>
+  </si>
+  <si>
     <t>领导观念的基本内涵</t>
   </si>
   <si>
+    <t>领导对领导活动中的规律性的本质认识和反应</t>
+  </si>
+  <si>
+    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
+  </si>
+  <si>
     <t>现代领导观念的基本特征</t>
   </si>
   <si>
+    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
+  </si>
+  <si>
+    <t>决定领导者的领导方式，影响成败</t>
+  </si>
+  <si>
     <t>领导观念的重要作用</t>
   </si>
   <si>
+    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
+  </si>
+  <si>
     <t>政治观念的基本内涵</t>
   </si>
   <si>
+    <t>坚持中国民族特色，建设中国特色社会主义</t>
+  </si>
+  <si>
+    <t>领导者对政治本质的认识和看法</t>
+  </si>
+  <si>
     <t>人本观念的基本内涵</t>
   </si>
   <si>
+    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
+  </si>
+  <si>
     <t>权力观念的基本内涵</t>
   </si>
   <si>
+    <t>把个人意志强加在其他人行为上的能力</t>
+  </si>
+  <si>
+    <t>市场经济的需要</t>
+  </si>
+  <si>
+    <t>领导工作中主要矛盾决定的</t>
+  </si>
+  <si>
     <t>法制观念的基本内涵</t>
   </si>
   <si>
+    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
+  </si>
+  <si>
+    <t>社会主义社会对领导的本质要求决定的</t>
+  </si>
+  <si>
     <t>市场经济观念的基本内涵</t>
   </si>
   <si>
+    <t>领导者对市场经济的认识</t>
+  </si>
+  <si>
+    <t>密切党群关系的需要</t>
+  </si>
+  <si>
     <t>改革创新观念的基本内涵</t>
   </si>
   <si>
+    <t>对改革创新的总体认识和看法</t>
+  </si>
+  <si>
+    <t>坚持党性质和宗旨的需要</t>
+  </si>
+  <si>
+    <t>权力是领导者执行领导活动的基本和前提</t>
+  </si>
+  <si>
+    <t>对政治本质的认识和看法</t>
+  </si>
+  <si>
+    <t>对外工作的需要</t>
+  </si>
+  <si>
+    <t>没有权力领导者无法完成使命</t>
+  </si>
+  <si>
     <t>领导者树立政治观念的必要性</t>
   </si>
   <si>
+    <t>是依法治国的前提条件</t>
+  </si>
+  <si>
+    <t>科学发展</t>
+  </si>
+  <si>
+    <t>必须要有决策权和用人权</t>
+  </si>
+  <si>
     <t>领导者树立人本观念的必要性</t>
   </si>
   <si>
+    <t>是依法行政的首要条件</t>
+  </si>
+  <si>
+    <t>时代变化的要求</t>
+  </si>
+  <si>
     <t>领导者树立权力观念的必要性</t>
   </si>
   <si>
+    <t>是依法政府必要条件</t>
+  </si>
+  <si>
+    <t>社会主义现代化建设的要求</t>
+  </si>
+  <si>
     <t>领导者树立法治观念的必要性</t>
   </si>
   <si>
+    <t>保障人权的需要</t>
+  </si>
+  <si>
+    <t>保障事业发展的要求</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+  </si>
+  <si>
+    <t>权力内容</t>
+  </si>
+  <si>
     <t>领导者树立改革创新观念的必要性</t>
   </si>
   <si>
+    <t>先人后事</t>
+  </si>
+  <si>
+    <t>权力来源</t>
+  </si>
+  <si>
+    <t>坚持人才原则</t>
+  </si>
+  <si>
+    <t>权责关系的</t>
+  </si>
+  <si>
     <t>领导者树立正确的政治观念的基本要求</t>
   </si>
   <si>
+    <t>正确的政治方向，最终实现共产主义</t>
+  </si>
+  <si>
+    <t>人尽其才</t>
+  </si>
+  <si>
+    <t>权力监督</t>
+  </si>
+  <si>
     <t>领导者树立人本观念的基本要求</t>
   </si>
   <si>
+    <t>正确的政治立场，为人民服务</t>
+  </si>
+  <si>
+    <t>人才竞争</t>
+  </si>
+  <si>
+    <t>权力行使的</t>
+  </si>
+  <si>
     <t>领导者树立正确的权利观念的基本要求</t>
   </si>
   <si>
+    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
+  </si>
+  <si>
+    <t>人文关怀</t>
+  </si>
+  <si>
     <t>领导者树立法治观念的基本要求</t>
   </si>
   <si>
     <t>领导者树立现代市场经济观念的基本要求</t>
   </si>
   <si>
+    <t>法律至上</t>
+  </si>
+  <si>
+    <t>人情了解市场经济体制的必然性</t>
+  </si>
+  <si>
+    <t>要认识改革创新的性质和目的</t>
+  </si>
+  <si>
+    <t>什么是政绩</t>
+  </si>
+  <si>
     <t>领导者树立科学的改革创新观念的基本要求</t>
   </si>
   <si>
+    <t>人人平等</t>
+  </si>
+  <si>
+    <t>了解基本规律</t>
+  </si>
+  <si>
+    <t>要明确改革创新的价值</t>
+  </si>
+  <si>
+    <t>为谁创政绩</t>
+  </si>
+  <si>
     <t>领导者树立科学的政绩观念的基本要求</t>
   </si>
   <si>
+    <t>人权保障</t>
+  </si>
+  <si>
+    <t>了解特征</t>
+  </si>
+  <si>
+    <t>坚持改革创新的立场</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>依法用权</t>
+  </si>
+  <si>
+    <t>完善目标</t>
+  </si>
+  <si>
+    <t>保持解放思想的思维方式</t>
+  </si>
+  <si>
+    <t>怎么创造政绩</t>
+  </si>
+  <si>
+    <t>选择合理的改革方式</t>
+  </si>
+  <si>
+    <t>决策及其在领导工作中的地位：</t>
+  </si>
+  <si>
     <t>决策的含义</t>
   </si>
   <si>
+    <t>做出的决定，是决策做出的决定</t>
+  </si>
+  <si>
     <t>决策的构成要素</t>
   </si>
   <si>
+    <t>决策者</t>
+  </si>
+  <si>
+    <t>决策目标</t>
+  </si>
+  <si>
+    <t>决策环境</t>
+  </si>
+  <si>
+    <t>决策结果</t>
+  </si>
+  <si>
+    <t>决策备选方案</t>
+  </si>
+  <si>
     <t>决策的基本特征</t>
   </si>
   <si>
+    <t>针对性</t>
+  </si>
+  <si>
+    <t>目的性</t>
+  </si>
+  <si>
+    <t>实施性</t>
+  </si>
+  <si>
+    <t>选择性</t>
+  </si>
+  <si>
+    <t>优化型</t>
+  </si>
+  <si>
     <t>经验决策特点</t>
   </si>
   <si>
+    <t>是个人的决策活动，主要依靠决策者个人的素质做出决策，以经验为基础，信息量有限</t>
+  </si>
+  <si>
     <t>科学决策的特点</t>
   </si>
   <si>
+    <t>注重集体共同决策，共同完成决策活动，建立在科学基础上，运用广泛的科学技术方法进行分析，确保决策的可靠性</t>
+  </si>
+  <si>
     <t>决策的分类</t>
   </si>
   <si>
+    <t>战略，战术，程序化，非程序化，高中基层，最快，最优，确定性不确定性风险性</t>
+  </si>
+  <si>
     <t>决策的模式</t>
   </si>
   <si>
+    <t>理性，渐进，综合</t>
+  </si>
+  <si>
+    <t>科学决策的原则，程序，方法：</t>
+  </si>
+  <si>
     <t>德尔菲法特点</t>
   </si>
   <si>
+    <t>匿名</t>
+  </si>
+  <si>
+    <t>多伦反馈</t>
+  </si>
+  <si>
+    <t>最终结论的统一性</t>
+  </si>
+  <si>
+    <t>组成专家小组</t>
+  </si>
+  <si>
     <t>头脑风暴法的含义</t>
   </si>
   <si>
+    <t>一定数量的专家，用创造性的思维对决策对象的未来做出判断性的方法</t>
+  </si>
+  <si>
+    <t>提供问题和要求，并提供相关信息和文件</t>
+  </si>
+  <si>
     <t>试验决策法的含义</t>
   </si>
   <si>
+    <t>新出现的问题，无法通过经验，不能通过备选方案，无法选择最优方案的时候使用的决策</t>
+  </si>
+  <si>
+    <t>专家根据提供的资料给出预测结果</t>
+  </si>
+  <si>
     <t>科学决策的基本标准</t>
   </si>
   <si>
+    <t>要有决策目标，决策方案可以实现目标，实现目标的成本低，没有副作用</t>
+  </si>
+  <si>
+    <t>手机专家预测结果，绘制图表分发给专家，进行对比和修改</t>
+  </si>
+  <si>
     <t>科学决策的基本原则</t>
   </si>
   <si>
+    <t>客观性，信息性，程序性，选择性，可行性预测性，外脑性</t>
+  </si>
+  <si>
+    <t>手机修改后的结果，再次分发给专家，做二次修改</t>
+  </si>
+  <si>
     <t>追踪决策的特征</t>
   </si>
   <si>
+    <t>回溯性，非零起点，双重优化，心灵效应</t>
+  </si>
+  <si>
+    <t>最后对专家的意见做综合评价</t>
+  </si>
+  <si>
     <t>头脑风暴法必须遵循的原则</t>
   </si>
   <si>
+    <t>自由畅言，强调数量，禁止评论，相互借鉴</t>
+  </si>
+  <si>
     <t>科学决策的程序</t>
   </si>
   <si>
+    <t>明确问题，确定目标，集思广益，拟定方案，分析评估，选择防范，实施方案，反馈修正</t>
+  </si>
+  <si>
     <t>德尔菲法的实施步骤</t>
   </si>
   <si>
     <t>决策树法的步骤</t>
   </si>
   <si>
+    <t>根据决策问题绘制决策树，计算概率值，计算收益指，提出最优方案</t>
+  </si>
+  <si>
+    <t>决策中枢系统为核心</t>
+  </si>
+  <si>
+    <t>决策信息性系统外围</t>
+  </si>
+  <si>
+    <t>决策中的领导者：</t>
+  </si>
+  <si>
+    <t>决策智囊系统两者之间</t>
+  </si>
+  <si>
     <t>决策体质的内涵</t>
   </si>
   <si>
+    <t>承担决策的结构和人员组成的组织形式的体质</t>
+  </si>
+  <si>
     <t>决策体质的构成</t>
   </si>
   <si>
+    <t>具有决策权的领导集团共同作出的决策</t>
+  </si>
+  <si>
     <t>集体抉择含义</t>
   </si>
   <si>
+    <t>决策信息系统</t>
+  </si>
+  <si>
     <t>个人决策的含义</t>
   </si>
   <si>
+    <t>具有决策权的个人作出的决策</t>
+  </si>
+  <si>
     <t>危机决策的内涵</t>
   </si>
   <si>
+    <t>非程序化的决策，一般为从未见过的，难以决策的，环境变化无常的</t>
+  </si>
+  <si>
     <t>现代决策体质系统</t>
   </si>
   <si>
+    <t>决策目标的指定</t>
+  </si>
+  <si>
+    <t>时效性</t>
+  </si>
+  <si>
+    <t>领导保证智囊团独立研究，不能干涉，只让智能团论证自己的正确性</t>
+  </si>
+  <si>
     <t>领导者在决策活动中的主要职责</t>
   </si>
   <si>
+    <t>方案的指定</t>
+  </si>
+  <si>
+    <t>民主性</t>
+  </si>
+  <si>
+    <t>领导者不能被智囊团替换，不能让智囊团为领导者作出决定</t>
+  </si>
+  <si>
     <t>集体决策需要注意的问题，对领导决策的基本要求</t>
   </si>
   <si>
+    <t>快速果断</t>
+  </si>
+  <si>
+    <t>方案的选择</t>
+  </si>
+  <si>
+    <t>灵活性</t>
+  </si>
+  <si>
+    <t>决策的问题进行科学预测</t>
+  </si>
+  <si>
     <t>领导者与智囊团的关系</t>
   </si>
   <si>
+    <t>高效准确</t>
+  </si>
+  <si>
+    <t>方案的试试</t>
+  </si>
+  <si>
+    <t>系统性</t>
+  </si>
+  <si>
+    <t>觉得的方案进行设计和分析</t>
+  </si>
+  <si>
     <t>领导者危机决策的基本要求</t>
   </si>
   <si>
+    <t>非程序性</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>觉得问题进行咨询</t>
+  </si>
+  <si>
     <t>领导者在决策过程中发挥智囊团的作用</t>
   </si>
   <si>
+    <t>主动积极</t>
+  </si>
+  <si>
+    <t>决策实施情况进行反馈</t>
+  </si>
+  <si>
     <t>领导者进行危机决策的方法</t>
   </si>
   <si>
+    <t>迅速果断</t>
+  </si>
+  <si>
     <t>领导者科学决策的原则和方法</t>
   </si>
   <si>
+    <t>富有创意灵活</t>
+  </si>
+  <si>
     <t>人才的特点</t>
   </si>
   <si>
@@ -1070,365 +1517,19 @@
   </si>
   <si>
     <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
-  </si>
-  <si>
-    <t>是领导职责和社会功能，是本质的具体表现</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是确定组织机构的重要标志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是领导活动科学化的依据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是领导活动结束的依据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>引到</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>指挥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>协调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>监督</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学决策</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选才用人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>思想政治工作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>能技能职对应，优势定位，结构优化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在领导活动中所要坚持的标准和法则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总原则，基本原则，具体原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>党的基本路线</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实事求是</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>民主集中制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群众路线原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一领导原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分权原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分层原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统整体原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权责一致原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>民主公开原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>集体，分工结合原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导对领导活动中的规律性的本质认识和反应</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>以马列主义，毛泽东思想坚持一切从实际出发的政治立场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持继承优良传统，体现时代精神，抛弃就的观念，树立新华年</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持中国民族特色，建设中国特色社会主义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>知道领导者思维活动，制约思维活动的过程和结果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定领导者的领导方式，影响成败</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导者对政治本质的认识和看法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持以人为本，发展需要人民，最终是为了人的全面发展</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>把个人意志强加在其他人行为上的能力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>围绕领导权和领导职能锁形成的依法全和依法领导的思维方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导者对市场经济的认识</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对改革创新的总体认识和看法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对政治本质的认识和看法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场经济的需要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>密切党群关系的需要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持党性质和宗旨的需要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>对外工作的需要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导工作中主要矛盾决定的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会主义社会对领导的本质要求决定的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权力是领导者执行领导活动的基本和前提</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有权力领导者无法完成使命</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须要有决策权和用人权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是依法治国的前提条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是依法行政的首要条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是依法政府必要条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保障人权的需要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学发展</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>时代变化的要求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会主义现代化建设的要求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保障事业发展的要求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的政治方向，最终实现共产主义</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的政治立场，为人民服务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的政治观点，运用马列毛，用科学和谐的理论，通灵党和国家各项工作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>先人后事</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持人才原则</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人尽其才</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才竞争</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人文关怀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权力内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权力来源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权责关系的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权力监督</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>权力行使的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律至上</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人人平等</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人权保障</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>依法用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人情了解市场经济体制的必然性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解基本规律</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解特征</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要认识改革创新的性质和目的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要明确改革创新的价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚持改革创新的立场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持解放思想的思维方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择合理的改革方式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是政绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>为谁创政绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么创造政绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,45 +1551,361 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1496,13 +1913,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,24 +2177,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1822,2139 +2522,2354 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E11" s="3" t="s">
+    <row r="11" spans="5:8">
+      <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H12" s="3" t="s">
+    <row r="12" spans="8:8">
+      <c r="H12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H13" s="3" t="s">
+    <row r="13" spans="8:8">
+      <c r="H13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H14" s="3" t="s">
+    <row r="14" spans="8:8">
+      <c r="H14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H15" s="3" t="s">
+    <row r="15" spans="8:8">
+      <c r="H15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H16" s="3" t="s">
+    <row r="16" spans="8:8">
+      <c r="H16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="3" t="s">
+    <row r="17" spans="8:8">
+      <c r="H17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H18" s="3" t="s">
+    <row r="18" spans="8:8">
+      <c r="H18" s="4" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>308</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>322</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>345</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E26" s="3" t="s">
+    <row r="26" spans="5:5">
+      <c r="E26" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E27" s="3" t="s">
+    <row r="27" spans="5:5">
+      <c r="E27" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E28" s="3" t="s">
+    <row r="28" spans="5:5">
+      <c r="E28" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E29" s="3" t="s">
+    <row r="29" spans="5:5">
+      <c r="E29" s="4" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D8" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D9" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D10" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F11" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F12" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F13" s="6" t="s">
-        <v>372</v>
+        <v>134</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M17" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F25" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="L26" s="6" t="s">
-        <v>429</v>
+      <c r="M7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15">
+      <c r="M17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
+      <c r="F25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>177</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>198</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEE03B-AF5A-41CE-947F-BF9723BB145D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="882" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="第三章 领导的职能和原则" sheetId="3" r:id="rId3"/>
     <sheet name="第四章 领导观念" sheetId="4" r:id="rId4"/>
     <sheet name="第五章 领导决策" sheetId="5" r:id="rId5"/>
-    <sheet name=" 第六章" sheetId="6" r:id="rId6"/>
-    <sheet name="第七章" sheetId="7" r:id="rId7"/>
+    <sheet name=" 第六章 领导用人" sheetId="6" r:id="rId6"/>
+    <sheet name="第七章 领导的思想政治工作" sheetId="7" r:id="rId7"/>
     <sheet name="第八章" sheetId="8" r:id="rId8"/>
     <sheet name="第九章" sheetId="9" r:id="rId9"/>
     <sheet name="第十章" sheetId="10" r:id="rId10"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="548">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1517,19 +1523,217 @@
   </si>
   <si>
     <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
+  </si>
+  <si>
+    <t>社会性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史进步性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作性质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身素质</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发挥作用不同</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>再现型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡量是否属于人才的指标和准则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才是事业之本，正确的选才，推动社会金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过投票以选拔人才</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过考试选拔人才</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过推荐选拔人才</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>察言观行相结合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>考察历史和显示结合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现人才的长处与短处</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群众评论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>考选</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资历与能力的关系，避免论资排辈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识分子与人才的关系，避免把两者等同起来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历和能力的关系，要实践与文化相结合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有任免权的领导按人事制度授予一定职位的制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过签署合同的方式照片人才的一种制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于人才实行有计划的定期交流的一种制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>量才用人，只能相称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬长避短，各尽所能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用人不疑，疑人不用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理搭配，整体效能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>五湖四海，宽以容才</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理流动，适材适所</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱护人才，关心帮助</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重视培养，用养结合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任免制度培养制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核制度奖惩制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流制度回避制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>甚至制度辞职制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任期制度，退休制度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,7 +1755,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1567,345 +1771,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1913,255 +1814,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2180,62 +1839,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2522,24 +2146,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2556,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2590,7 +2214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2598,7 +2222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2606,7 +2230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2628,7 +2252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2639,7 +2263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2658,7 +2282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2666,573 +2290,568 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="8:8">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="8:8">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H18" s="4" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>435</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>459</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>473</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>496</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -3240,7 +2859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3269,7 +2888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -3298,7 +2917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -3324,7 +2943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3347,7 +2966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -3355,7 +2974,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -3366,7 +2985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -3377,7 +2996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -3385,7 +3004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -3393,12 +3012,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
@@ -3406,7 +3025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -3414,12 +3033,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
@@ -3427,7 +3046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
@@ -3435,7 +3054,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -3443,7 +3062,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -3451,7 +3070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
@@ -3459,7 +3078,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>104</v>
       </c>
@@ -3467,7 +3086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -3475,7 +3094,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -3483,7 +3102,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
@@ -3491,7 +3110,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -3499,7 +3118,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>114</v>
       </c>
@@ -3507,48 +3126,47 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E26" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E27" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E28" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E29" s="4" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -3562,7 +3180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -3579,7 +3197,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -3593,7 +3211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -3604,7 +3222,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
@@ -3615,7 +3233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3626,7 +3244,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>141</v>
       </c>
@@ -3637,7 +3255,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
@@ -3645,7 +3263,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
@@ -3653,7 +3271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
         <v>148</v>
       </c>
@@ -3661,43 +3279,42 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="6:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="6:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -3708,7 +3325,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3719,7 +3336,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
@@ -3727,7 +3344,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
@@ -3738,7 +3355,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
@@ -3746,7 +3363,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
@@ -3760,7 +3377,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>170</v>
       </c>
@@ -3774,7 +3391,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
@@ -3785,7 +3402,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>176</v>
       </c>
@@ -3799,7 +3416,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>161</v>
       </c>
@@ -3813,10 +3430,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>183</v>
       </c>
@@ -3830,7 +3447,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>187</v>
       </c>
@@ -3841,7 +3458,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>190</v>
       </c>
@@ -3852,7 +3469,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -3869,7 +3486,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>198</v>
       </c>
@@ -3880,7 +3497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="13:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="M17" s="1" t="s">
         <v>201</v>
       </c>
@@ -3888,7 +3505,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
@@ -3902,7 +3519,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>207</v>
       </c>
@@ -3916,7 +3533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>211</v>
       </c>
@@ -3927,12 +3544,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>215</v>
       </c>
@@ -3949,7 +3566,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>220</v>
       </c>
@@ -3966,7 +3583,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>225</v>
       </c>
@@ -3983,7 +3600,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="6:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
         <v>230</v>
       </c>
@@ -3997,37 +3614,36 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="L26" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>236</v>
       </c>
@@ -4035,7 +3651,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>238</v>
       </c>
@@ -4055,7 +3671,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>244</v>
       </c>
@@ -4075,7 +3691,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>250</v>
       </c>
@@ -4083,7 +3699,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>252</v>
       </c>
@@ -4091,7 +3707,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>254</v>
       </c>
@@ -4099,7 +3715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>256</v>
       </c>
@@ -4107,12 +3723,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>259</v>
       </c>
@@ -4129,7 +3745,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>264</v>
       </c>
@@ -4140,7 +3756,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>267</v>
       </c>
@@ -4151,7 +3767,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>270</v>
       </c>
@@ -4162,7 +3778,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>273</v>
       </c>
@@ -4173,7 +3789,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>276</v>
       </c>
@@ -4184,7 +3800,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>279</v>
       </c>
@@ -4192,7 +3808,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>281</v>
       </c>
@@ -4200,12 +3816,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>284</v>
       </c>
@@ -4216,12 +3832,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L21" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>288</v>
       </c>
@@ -4229,7 +3845,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>290</v>
       </c>
@@ -4237,7 +3853,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>292</v>
       </c>
@@ -4248,7 +3864,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>294</v>
       </c>
@@ -4256,7 +3872,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>296</v>
       </c>
@@ -4267,7 +3883,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>298</v>
       </c>
@@ -4275,7 +3891,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>300</v>
       </c>
@@ -4289,7 +3905,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>304</v>
       </c>
@@ -4303,7 +3919,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>308</v>
       </c>
@@ -4320,7 +3936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>313</v>
       </c>
@@ -4337,7 +3953,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>318</v>
       </c>
@@ -4351,7 +3967,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>322</v>
       </c>
@@ -4362,7 +3978,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>325</v>
       </c>
@@ -4370,7 +3986,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>327</v>
       </c>
@@ -4379,497 +3995,665 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E24" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E27" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E28" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E29" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>367</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>390</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>410</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEE03B-AF5A-41CE-947F-BF9723BB145D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="882" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="550">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1024,30 +1018,123 @@
     <t>人才的特点</t>
   </si>
   <si>
+    <t>社会性</t>
+  </si>
+  <si>
+    <t>工作性质</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t>实践</t>
+  </si>
+  <si>
+    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
+  </si>
+  <si>
     <t>人才的类型</t>
   </si>
   <si>
+    <t>专业性</t>
+  </si>
+  <si>
+    <t>自身素质</t>
+  </si>
+  <si>
+    <t>发现型</t>
+  </si>
+  <si>
+    <t>再现型</t>
+  </si>
+  <si>
+    <t>人才是事业之本，正确的选才，推动社会金币</t>
+  </si>
+  <si>
     <t>衡量人才的标准</t>
   </si>
   <si>
+    <t>衡量是否属于人才的指标和准则</t>
+  </si>
+  <si>
+    <t>创造性</t>
+  </si>
+  <si>
+    <t>发挥作用不同</t>
+  </si>
+  <si>
+    <t>组织型</t>
+  </si>
+  <si>
+    <t>操作型</t>
+  </si>
+  <si>
+    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
+  </si>
+  <si>
     <t>选材用人对于现代领导的重要意义</t>
   </si>
   <si>
+    <t>历史进步性</t>
+  </si>
+  <si>
+    <t>相对性</t>
+  </si>
+  <si>
+    <t>资历与能力的关系，避免论资排辈</t>
+  </si>
+  <si>
     <t>选举制的含义</t>
   </si>
   <si>
+    <t>通过投票以选拔人才</t>
+  </si>
+  <si>
+    <t>察言观行相结合</t>
+  </si>
+  <si>
+    <t>知识分子与人才的关系，避免把两者等同起来</t>
+  </si>
+  <si>
     <t>考选制的含义</t>
   </si>
   <si>
+    <t>通过考试选拔人才</t>
+  </si>
+  <si>
+    <t>考察历史和显示结合</t>
+  </si>
+  <si>
+    <t>学历和能力的关系，要实践与文化相结合</t>
+  </si>
+  <si>
     <t>荐举制的含义</t>
   </si>
   <si>
+    <t>通过推荐选拔人才</t>
+  </si>
+  <si>
+    <t>发现人才的长处与短处</t>
+  </si>
+  <si>
     <t>人才选拔的基本原则</t>
   </si>
   <si>
+    <t>群众评论</t>
+  </si>
+  <si>
     <t>人才选拔的制度</t>
   </si>
   <si>
+    <t>选举</t>
+  </si>
+  <si>
+    <t>考选</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
     <t>领导者在选拔人才时必须正确处理的关系</t>
   </si>
   <si>
@@ -1057,39 +1144,105 @@
     <t>选任制的含义</t>
   </si>
   <si>
+    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
+  </si>
+  <si>
     <t>委任制的含义</t>
   </si>
   <si>
+    <t>有任免权的领导按人事制度授予一定职位的制度</t>
+  </si>
+  <si>
     <t>聘任制的含义</t>
   </si>
   <si>
+    <t>通过签署合同的方式照片人才的一种制度</t>
+  </si>
+  <si>
     <t>考核制度的含义</t>
   </si>
   <si>
+    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
+  </si>
+  <si>
     <t>奖惩制度的含义</t>
   </si>
   <si>
+    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
+  </si>
+  <si>
     <t>交流制度的含义</t>
   </si>
   <si>
+    <t>对于人才实行有计划的定期交流的一种制度</t>
+  </si>
+  <si>
     <t>任期制度的含义</t>
   </si>
   <si>
+    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
+  </si>
+  <si>
     <t>人才使用的基本原则</t>
   </si>
   <si>
     <t>人才使用的主要制度</t>
   </si>
   <si>
+    <t>量才用人，只能相称</t>
+  </si>
+  <si>
+    <t>任免制度培养制度</t>
+  </si>
+  <si>
     <t>领导者使用人才的基本原则和方法</t>
   </si>
   <si>
+    <t>扬长避短，各尽所能</t>
+  </si>
+  <si>
+    <t>考核制度奖惩制度</t>
+  </si>
+  <si>
+    <t>用人不疑，疑人不用</t>
+  </si>
+  <si>
+    <t>交流制度回避制度</t>
+  </si>
+  <si>
+    <t>合理搭配，整体效能</t>
+  </si>
+  <si>
+    <t>甚至制度辞职制度</t>
+  </si>
+  <si>
+    <t>五湖四海，宽以容才</t>
+  </si>
+  <si>
+    <t>任期制度，退休制度</t>
+  </si>
+  <si>
+    <t>合理流动，适材适所</t>
+  </si>
+  <si>
+    <t>爱护人才，关心帮助</t>
+  </si>
+  <si>
+    <t>重视培养，用养结合</t>
+  </si>
+  <si>
     <t>思想政治工作的含义</t>
   </si>
   <si>
+    <t>思想工作就是人的工作，通过确立观念，立场，思想来提高工作效率</t>
+  </si>
+  <si>
     <t>思想政治工作的对象</t>
   </si>
   <si>
+    <t>人</t>
+  </si>
+  <si>
     <t>思想政治工作对领导工作的重要意义</t>
   </si>
   <si>
@@ -1523,217 +1676,19 @@
   </si>
   <si>
     <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
-  </si>
-  <si>
-    <t>社会性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>创造性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史进步性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作性质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身素质</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发挥作用不同</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实践</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>再现型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡量是否属于人才的指标和准则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才是最宝贵的财富，是创造物质财富，精神财富的推动者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才是事业之本，正确的选才，推动社会金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才是社会主义现代化建设的桥梁，选才，推动社会主义建设的关键</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过投票以选拔人才</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过考试选拔人才</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过推荐选拔人才</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>察言观行相结合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>考察历史和显示结合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现人才的长处与短处</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群众评论</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选举</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>考选</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>资历与能力的关系，避免论资排辈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识分子与人才的关系，避免把两者等同起来</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历和能力的关系，要实践与文化相结合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过群众依法投票的新鲜事选拔出来的人才的制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>有任免权的领导按人事制度授予一定职位的制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过签署合同的方式照片人才的一种制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一定类型的员工的工作能力，工作绩效，工作态度，道德品质进行考核的一种制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>有突出成绩的给与物质奖励，有错误的惩处教育的一种制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于人才实行有计划的定期交流的一种制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导机关，事业单位中，某些职位员工工作时间有一定期限，任期满后，职权，责任自然取消</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>量才用人，只能相称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬长避短，各尽所能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用人不疑，疑人不用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合理搭配，整体效能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>五湖四海，宽以容才</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合理流动，适材适所</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱护人才，关心帮助</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>重视培养，用养结合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>任免制度培养制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核制度奖惩制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流制度回避制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>甚至制度辞职制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>任期制度，退休制度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,7 +1710,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1771,42 +1738,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1814,13 +2084,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1839,27 +2351,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2146,1027 +2699,1033 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E11" s="4" t="s">
+    <row r="11" spans="5:8">
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H12" s="4" t="s">
+    <row r="12" spans="8:8">
+      <c r="H12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H13" s="4" t="s">
+    <row r="13" spans="8:8">
+      <c r="H13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H14" s="4" t="s">
+    <row r="14" spans="8:8">
+      <c r="H14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H15" s="4" t="s">
+    <row r="15" spans="8:8">
+      <c r="H15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H16" s="4" t="s">
+    <row r="16" spans="8:8">
+      <c r="H16" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="4" t="s">
+    <row r="17" spans="8:8">
+      <c r="H17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H18" s="4" t="s">
+    <row r="18" spans="8:8">
+      <c r="H18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E26" s="4" t="s">
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E27" s="4" t="s">
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E28" s="4" t="s">
+    <row r="28" spans="5:5">
+      <c r="E28" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E29" s="4" t="s">
+    <row r="29" spans="5:5">
+      <c r="E29" s="6" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -3180,7 +3739,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -3197,7 +3756,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -3211,7 +3770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -3222,7 +3781,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
@@ -3233,7 +3792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3244,7 +3803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>141</v>
       </c>
@@ -3255,7 +3814,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:6">
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
@@ -3263,7 +3822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:6">
       <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
@@ -3271,7 +3830,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:6">
       <c r="D10" s="1" t="s">
         <v>148</v>
       </c>
@@ -3279,42 +3838,43 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="6:6">
       <c r="F11" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="6:6">
       <c r="F12" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="6:6">
       <c r="F13" s="1" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -3325,7 +3885,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3336,7 +3896,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
@@ -3344,7 +3904,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
@@ -3355,7 +3915,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
@@ -3363,7 +3923,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
@@ -3377,7 +3937,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>170</v>
       </c>
@@ -3391,7 +3951,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
@@ -3402,7 +3962,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>176</v>
       </c>
@@ -3416,7 +3976,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>161</v>
       </c>
@@ -3430,10 +3990,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>183</v>
       </c>
@@ -3447,7 +4007,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>187</v>
       </c>
@@ -3458,7 +4018,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>190</v>
       </c>
@@ -3469,7 +4029,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -3486,7 +4046,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>198</v>
       </c>
@@ -3497,7 +4057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="13:15">
       <c r="M17" s="1" t="s">
         <v>201</v>
       </c>
@@ -3505,7 +4065,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
@@ -3519,7 +4079,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>207</v>
       </c>
@@ -3533,7 +4093,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>211</v>
       </c>
@@ -3544,12 +4104,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>215</v>
       </c>
@@ -3566,7 +4126,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>220</v>
       </c>
@@ -3583,7 +4143,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>225</v>
       </c>
@@ -3600,7 +4160,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:15">
       <c r="F25" s="1" t="s">
         <v>230</v>
       </c>
@@ -3614,45 +4174,46 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="12:12">
       <c r="L26" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3671,8 +4232,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3691,45 +4252,45 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3745,8 +4306,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3756,8 +4317,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3767,8 +4328,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3778,8 +4339,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3789,8 +4350,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3800,29 +4361,29 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3832,29 +4393,29 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="12:12">
       <c r="L21" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="6" t="s">
         <v>288</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
         <v>290</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3864,16 +4425,16 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
         <v>294</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3883,16 +4444,16 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3905,8 +4466,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3919,8 +4480,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3936,8 +4497,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3953,8 +4514,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3967,8 +4528,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
         <v>322</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3978,16 +4539,16 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
         <v>327</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3995,665 +4556,675 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>497</v>
+        <v>330</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>502</v>
+        <v>331</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>505</v>
+        <v>332</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>506</v>
+        <v>333</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>498</v>
+        <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>503</v>
+        <v>337</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>507</v>
+        <v>338</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>508</v>
+        <v>339</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>511</v>
+        <v>342</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>499</v>
+        <v>343</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>509</v>
+        <v>345</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>510</v>
+        <v>346</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>332</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11">
       <c r="G5" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E24" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E25" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E26" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E27" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E28" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>350</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>367</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FF057-CF8D-4CD9-9D9A-04437DAE2098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="882" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -14,9 +20,9 @@
     <sheet name="第五章 领导决策" sheetId="5" r:id="rId5"/>
     <sheet name=" 第六章 领导用人" sheetId="6" r:id="rId6"/>
     <sheet name="第七章 领导的思想政治工作" sheetId="7" r:id="rId7"/>
-    <sheet name="第八章" sheetId="8" r:id="rId8"/>
-    <sheet name="第九章" sheetId="9" r:id="rId9"/>
-    <sheet name="第十章" sheetId="10" r:id="rId10"/>
+    <sheet name="第八章 领导体制" sheetId="8" r:id="rId8"/>
+    <sheet name="第九章 领导者的素质" sheetId="9" r:id="rId9"/>
+    <sheet name="第十章 领导方法" sheetId="10" r:id="rId10"/>
     <sheet name="第十一章" sheetId="11" r:id="rId11"/>
     <sheet name="第十二章" sheetId="12" r:id="rId12"/>
     <sheet name="第十三章" sheetId="13" r:id="rId13"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="716">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1240,455 +1246,1120 @@
     <t>思想政治工作的对象</t>
   </si>
   <si>
+    <t>思想政治工作对领导工作的重要意义</t>
+  </si>
+  <si>
+    <t>政治教育的含义</t>
+  </si>
+  <si>
+    <t>公民素质教育的含义</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本内容</t>
+  </si>
+  <si>
+    <t>政治教育的基本内容</t>
+  </si>
+  <si>
+    <t>公民素质教育的主要内容</t>
+  </si>
+  <si>
+    <t>说理教育法的含义</t>
+  </si>
+  <si>
+    <t>情感交流法的含义</t>
+  </si>
+  <si>
+    <t>心里咨询法的含义</t>
+  </si>
+  <si>
+    <t>榜样示范法的含义</t>
+  </si>
+  <si>
+    <t>自我教育法的含义</t>
+  </si>
+  <si>
+    <t>思想政治工作的方针</t>
+  </si>
+  <si>
+    <t>思想政治工作的基本原则</t>
+  </si>
+  <si>
+    <t>思想政治工作的方法</t>
+  </si>
+  <si>
+    <t>领导者开展思想政治工作的方针，原则，方法</t>
+  </si>
+  <si>
+    <t>领导体制的内涵</t>
+  </si>
+  <si>
+    <t>领导体制的特征</t>
+  </si>
+  <si>
+    <t>领导层次的含义</t>
+  </si>
+  <si>
+    <t>领导宽度（幅度）的含义</t>
+  </si>
+  <si>
+    <t>领导体制的二重性</t>
+  </si>
+  <si>
+    <t>领导组织的原则</t>
+  </si>
+  <si>
+    <t>领导组织结构</t>
+  </si>
+  <si>
+    <t>领导的层次与宽度（幅度）的关系</t>
+  </si>
+  <si>
+    <t>领导组织机构的构成</t>
+  </si>
+  <si>
+    <t>领导体制的作用</t>
+  </si>
+  <si>
+    <t>资产阶级民主制领导体制的特征</t>
+  </si>
+  <si>
+    <t>完整制与分离制的优缺点</t>
+  </si>
+  <si>
+    <t>一长制与委员会制的优缺点</t>
+  </si>
+  <si>
+    <t>层级制与职能制的优缺点</t>
+  </si>
+  <si>
+    <t>我国现行领导体制的本质特征</t>
+  </si>
+  <si>
+    <t>我国现行领导体制的主要问题</t>
+  </si>
+  <si>
+    <t>我国领导体制改革的原则</t>
+  </si>
+  <si>
+    <t>我国领导体制改革的内容</t>
+  </si>
+  <si>
+    <t>领导者素质的内涵</t>
+  </si>
+  <si>
+    <t>领导者素质的特点</t>
+  </si>
+  <si>
+    <t>领导者素质的重要性</t>
+  </si>
+  <si>
+    <t>【政治素质】的含义</t>
+  </si>
+  <si>
+    <t>【道德素质】的含义</t>
+  </si>
+  <si>
+    <t>【知识素质】的含义</t>
+  </si>
+  <si>
+    <t>领导者【政治素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【法律素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【能力素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【道德素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【知识素质】的【基本内容】</t>
+  </si>
+  <si>
+    <t>领导者【身心素质】的【内容】</t>
+  </si>
+  <si>
+    <t>领导者提高和培养素质的基本途径</t>
+  </si>
+  <si>
+    <t>当前领导者提高素质的基本方法</t>
+  </si>
+  <si>
+    <t>领导者集体素质结构的含义</t>
+  </si>
+  <si>
+    <t>领导集体素质结构的特征</t>
+  </si>
+  <si>
+    <t>合理的领导集体素质结构的基本内容</t>
+  </si>
+  <si>
+    <t>领导集体素质结构优化的原则</t>
+  </si>
+  <si>
+    <t>优化领导集体素质结构的途径</t>
+  </si>
+  <si>
+    <t>当前中国领导集体素质结构优化的原则和方法</t>
+  </si>
+  <si>
+    <t>领导方法的含义</t>
+  </si>
+  <si>
+    <t>领导方法的特征</t>
+  </si>
+  <si>
+    <t>运用领导方法的重要意义</t>
+  </si>
+  <si>
+    <t>运用领导方法的基本原则</t>
+  </si>
+  <si>
+    <t>战略性思维方法的特征</t>
+  </si>
+  <si>
+    <t>创造性思维的特征</t>
+  </si>
+  <si>
+    <t>创造性思维原理</t>
+  </si>
+  <si>
+    <t>辩证逻辑思维方法</t>
+  </si>
+  <si>
+    <t>系统性思维方法</t>
+  </si>
+  <si>
+    <t>改善战略性思维方法的途径</t>
+  </si>
+  <si>
+    <t>创造性思维方法</t>
+  </si>
+  <si>
+    <t>领导者思维方法的训练和应用</t>
+  </si>
+  <si>
+    <t>典型调查的含义</t>
+  </si>
+  <si>
+    <t>抽样调查的含义</t>
+  </si>
+  <si>
+    <t>普遍调查的含义</t>
+  </si>
+  <si>
+    <t>系统领导法的含义</t>
+  </si>
+  <si>
+    <t>信息方法的含义</t>
+  </si>
+  <si>
+    <t>控制论方法的含义</t>
+  </si>
+  <si>
+    <t>基本领导方法的内容</t>
+  </si>
+  <si>
+    <t>系统论方法的内容</t>
+  </si>
+  <si>
+    <t>信息论方法的内容</t>
+  </si>
+  <si>
+    <t>控制论方法的内容</t>
+  </si>
+  <si>
+    <t>基本领导方法的应用</t>
+  </si>
+  <si>
+    <t>现在科学领导方法的应用</t>
+  </si>
+  <si>
+    <t>系统掌握基本领导方法和现在科学领导方法</t>
+  </si>
+  <si>
+    <t>领导艺术的含义</t>
+  </si>
+  <si>
+    <t>领导艺术的定位</t>
+  </si>
+  <si>
+    <t>领导艺术的特征</t>
+  </si>
+  <si>
+    <t>授权的含义</t>
+  </si>
+  <si>
+    <t>刚性授权的含义</t>
+  </si>
+  <si>
+    <t>惰性授权的含义</t>
+  </si>
+  <si>
+    <t>模糊授权的含义</t>
+  </si>
+  <si>
+    <t>口头授权的含义</t>
+  </si>
+  <si>
+    <t>书面授权的含义</t>
+  </si>
+  <si>
+    <t>突发性事件的含义</t>
+  </si>
+  <si>
+    <t>领导授权的类型</t>
+  </si>
+  <si>
+    <t>正副职的关系定位</t>
+  </si>
+  <si>
+    <t>开会必须遵循的原则</t>
+  </si>
+  <si>
+    <t>突发性事件的特征</t>
+  </si>
+  <si>
+    <t>领导授权的要点</t>
+  </si>
+  <si>
+    <t>领导沟通艺术的基本内容及其要点</t>
+  </si>
+  <si>
+    <t>当好正副职的艺术</t>
+  </si>
+  <si>
+    <t>领导者运筹时间的艺术要点</t>
+  </si>
+  <si>
+    <t>主持会议的技巧</t>
+  </si>
+  <si>
+    <t>处理突发性事件的艺术</t>
+  </si>
+  <si>
+    <t>中国领导者应该具备的领导艺术的要点</t>
+  </si>
+  <si>
+    <t>政客权术的含义</t>
+  </si>
+  <si>
+    <t>领导艺术与政客权术的区别</t>
+  </si>
+  <si>
+    <t>提高领导艺术水平的途径</t>
+  </si>
+  <si>
+    <t>领导作风的含义</t>
+  </si>
+  <si>
+    <t>领导作风的特点</t>
+  </si>
+  <si>
+    <t>领导作风的本质</t>
+  </si>
+  <si>
+    <t>领导作风的意义</t>
+  </si>
+  <si>
+    <t>思想作风的含义</t>
+  </si>
+  <si>
+    <t>学习作风的含义</t>
+  </si>
+  <si>
+    <t>工作作风的含义</t>
+  </si>
+  <si>
+    <t>组织作风的含义</t>
+  </si>
+  <si>
+    <t>生活作风的含义</t>
+  </si>
+  <si>
+    <t>思想作风的基本要求</t>
+  </si>
+  <si>
+    <t>学习作风的基本要求</t>
+  </si>
+  <si>
+    <t>工作作风的基本要求</t>
+  </si>
+  <si>
+    <t>不良领导作风的主要表现</t>
+  </si>
+  <si>
+    <t>加强领导作风建设的途径</t>
+  </si>
+  <si>
+    <t>领导绩效的含义</t>
+  </si>
+  <si>
+    <t>领导绩效的特点</t>
+  </si>
+  <si>
+    <t>领导绩效的基本内容</t>
+  </si>
+  <si>
+    <t>领导绩效的作用</t>
+  </si>
+  <si>
+    <t>领导绩效考评的概念</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-层次不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-主体不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-时间不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-对象工作性质不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-方式不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的类型-目的不同</t>
+  </si>
+  <si>
+    <t>领导绩效考评的意义</t>
+  </si>
+  <si>
+    <t>领导绩效考评的内容</t>
+  </si>
+  <si>
+    <t>目标对照法的含义</t>
+  </si>
+  <si>
+    <t>比较考评发的含义</t>
+  </si>
+  <si>
+    <t>统计分析法的含义</t>
+  </si>
+  <si>
+    <t>自我述职法的含义</t>
+  </si>
+  <si>
+    <t>模拟考评法的含义</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【原则】</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【程序】</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【基本方法】</t>
+  </si>
+  <si>
+    <t>领导绩效考评的【具体方法】</t>
+  </si>
+  <si>
+    <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
+  </si>
+  <si>
     <t>人</t>
-  </si>
-  <si>
-    <t>思想政治工作对领导工作的重要意义</t>
-  </si>
-  <si>
-    <t>政治教育的含义</t>
-  </si>
-  <si>
-    <t>公民素质教育的含义</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本内容</t>
-  </si>
-  <si>
-    <t>政治教育的基本内容</t>
-  </si>
-  <si>
-    <t>公民素质教育的主要内容</t>
-  </si>
-  <si>
-    <t>说理教育法的含义</t>
-  </si>
-  <si>
-    <t>情感交流法的含义</t>
-  </si>
-  <si>
-    <t>个别引到法的含义</t>
-  </si>
-  <si>
-    <t>心里咨询法的含义</t>
-  </si>
-  <si>
-    <t>榜样示范法的含义</t>
-  </si>
-  <si>
-    <t>自我教育法的含义</t>
-  </si>
-  <si>
-    <t>思想政治工作的方针</t>
-  </si>
-  <si>
-    <t>思想政治工作的基本原则</t>
-  </si>
-  <si>
-    <t>思想政治工作的方法</t>
-  </si>
-  <si>
-    <t>领导者开展思想政治工作的方针，原则，方法</t>
-  </si>
-  <si>
-    <t>领导体制的内涵</t>
-  </si>
-  <si>
-    <t>领导体制的特征</t>
-  </si>
-  <si>
-    <t>领导层次的含义</t>
-  </si>
-  <si>
-    <t>领导宽度（幅度）的含义</t>
-  </si>
-  <si>
-    <t>领导体制的二重性</t>
-  </si>
-  <si>
-    <t>领导组织的原则</t>
-  </si>
-  <si>
-    <t>领导组织结构</t>
-  </si>
-  <si>
-    <t>领导的层次与宽度（幅度）的关系</t>
-  </si>
-  <si>
-    <t>领导组织机构的构成</t>
-  </si>
-  <si>
-    <t>领导体制的作用</t>
-  </si>
-  <si>
-    <t>集权制与分权制的含义</t>
-  </si>
-  <si>
-    <t>完整制与分离制的含义</t>
-  </si>
-  <si>
-    <t>一长制与委员会制的含义</t>
-  </si>
-  <si>
-    <t>层次制与职能制的含义</t>
-  </si>
-  <si>
-    <t>资产阶级民主制领导体制的特征</t>
-  </si>
-  <si>
-    <t>集权制与分权制的特有权点</t>
-  </si>
-  <si>
-    <t>完整制与分离制的优缺点</t>
-  </si>
-  <si>
-    <t>一长制与委员会制的优缺点</t>
-  </si>
-  <si>
-    <t>层级制与职能制的优缺点</t>
-  </si>
-  <si>
-    <t>我国现行领导体制的本质特征</t>
-  </si>
-  <si>
-    <t>我国现行领导体制的主要问题</t>
-  </si>
-  <si>
-    <t>我国领导体制改革的原则</t>
-  </si>
-  <si>
-    <t>我国领导体制改革的内容</t>
-  </si>
-  <si>
-    <t>领导者素质的内涵</t>
-  </si>
-  <si>
-    <t>领导者素质的特点</t>
-  </si>
-  <si>
-    <t>领导者素质的重要性</t>
-  </si>
-  <si>
-    <t>【政治素质】的含义</t>
-  </si>
-  <si>
-    <t>【道德素质】的含义</t>
-  </si>
-  <si>
-    <t>【知识素质】的含义</t>
-  </si>
-  <si>
-    <t>领导者【政治素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>领导者【法律素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>领导者【能力素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>领导者【道德素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>领导者【知识素质】的【基本内容】</t>
-  </si>
-  <si>
-    <t>领导者【身心素质】的【内容】</t>
-  </si>
-  <si>
-    <t>领导者提高和培养素质的基本途径</t>
-  </si>
-  <si>
-    <t>当前领导者提高素质的基本方法</t>
-  </si>
-  <si>
-    <t>领导者集体素质结构的含义</t>
-  </si>
-  <si>
-    <t>领导集体素质结构的特征</t>
-  </si>
-  <si>
-    <t>合理的领导集体素质结构的基本内容</t>
-  </si>
-  <si>
-    <t>领导集体素质结构优化的原则</t>
-  </si>
-  <si>
-    <t>优化领导集体素质结构的途径</t>
-  </si>
-  <si>
-    <t>当前中国领导集体素质结构优化的原则和方法</t>
-  </si>
-  <si>
-    <t>领导方法的含义</t>
-  </si>
-  <si>
-    <t>领导方法的特征</t>
-  </si>
-  <si>
-    <t>运用领导方法的重要意义</t>
-  </si>
-  <si>
-    <t>运用领导方法的基本原则</t>
-  </si>
-  <si>
-    <t>战略性思维方法的特征</t>
-  </si>
-  <si>
-    <t>创造性思维的特征</t>
-  </si>
-  <si>
-    <t>创造性思维原理</t>
-  </si>
-  <si>
-    <t>辩证逻辑思维方法</t>
-  </si>
-  <si>
-    <t>系统性思维方法</t>
-  </si>
-  <si>
-    <t>改善战略性思维方法的途径</t>
-  </si>
-  <si>
-    <t>创造性思维方法</t>
-  </si>
-  <si>
-    <t>领导者思维方法的训练和应用</t>
-  </si>
-  <si>
-    <t>典型调查的含义</t>
-  </si>
-  <si>
-    <t>抽样调查的含义</t>
-  </si>
-  <si>
-    <t>普遍调查的含义</t>
-  </si>
-  <si>
-    <t>系统领导法的含义</t>
-  </si>
-  <si>
-    <t>信息方法的含义</t>
-  </si>
-  <si>
-    <t>控制论方法的含义</t>
-  </si>
-  <si>
-    <t>基本领导方法的内容</t>
-  </si>
-  <si>
-    <t>系统论方法的内容</t>
-  </si>
-  <si>
-    <t>信息论方法的内容</t>
-  </si>
-  <si>
-    <t>控制论方法的内容</t>
-  </si>
-  <si>
-    <t>基本领导方法的应用</t>
-  </si>
-  <si>
-    <t>现在科学领导方法的应用</t>
-  </si>
-  <si>
-    <t>系统掌握基本领导方法和现在科学领导方法</t>
-  </si>
-  <si>
-    <t>领导艺术的含义</t>
-  </si>
-  <si>
-    <t>领导艺术的定位</t>
-  </si>
-  <si>
-    <t>领导艺术的特征</t>
-  </si>
-  <si>
-    <t>授权的含义</t>
-  </si>
-  <si>
-    <t>刚性授权的含义</t>
-  </si>
-  <si>
-    <t>惰性授权的含义</t>
-  </si>
-  <si>
-    <t>模糊授权的含义</t>
-  </si>
-  <si>
-    <t>口头授权的含义</t>
-  </si>
-  <si>
-    <t>书面授权的含义</t>
-  </si>
-  <si>
-    <t>突发性事件的含义</t>
-  </si>
-  <si>
-    <t>领导授权的类型</t>
-  </si>
-  <si>
-    <t>正副职的关系定位</t>
-  </si>
-  <si>
-    <t>开会必须遵循的原则</t>
-  </si>
-  <si>
-    <t>突发性事件的特征</t>
-  </si>
-  <si>
-    <t>领导授权的要点</t>
-  </si>
-  <si>
-    <t>领导沟通艺术的基本内容及其要点</t>
-  </si>
-  <si>
-    <t>当好正副职的艺术</t>
-  </si>
-  <si>
-    <t>领导者运筹时间的艺术要点</t>
-  </si>
-  <si>
-    <t>主持会议的技巧</t>
-  </si>
-  <si>
-    <t>处理突发性事件的艺术</t>
-  </si>
-  <si>
-    <t>中国领导者应该具备的领导艺术的要点</t>
-  </si>
-  <si>
-    <t>政客权术的含义</t>
-  </si>
-  <si>
-    <t>领导艺术与政客权术的区别</t>
-  </si>
-  <si>
-    <t>提高领导艺术水平的途径</t>
-  </si>
-  <si>
-    <t>领导作风的含义</t>
-  </si>
-  <si>
-    <t>领导作风的特点</t>
-  </si>
-  <si>
-    <t>领导作风的本质</t>
-  </si>
-  <si>
-    <t>领导作风的意义</t>
-  </si>
-  <si>
-    <t>思想作风的含义</t>
-  </si>
-  <si>
-    <t>学习作风的含义</t>
-  </si>
-  <si>
-    <t>工作作风的含义</t>
-  </si>
-  <si>
-    <t>组织作风的含义</t>
-  </si>
-  <si>
-    <t>生活作风的含义</t>
-  </si>
-  <si>
-    <t>思想作风的基本要求</t>
-  </si>
-  <si>
-    <t>学习作风的基本要求</t>
-  </si>
-  <si>
-    <t>工作作风的基本要求</t>
-  </si>
-  <si>
-    <t>不良领导作风的主要表现</t>
-  </si>
-  <si>
-    <t>加强领导作风建设的途径</t>
-  </si>
-  <si>
-    <t>领导绩效的含义</t>
-  </si>
-  <si>
-    <t>领导绩效的特点</t>
-  </si>
-  <si>
-    <t>领导绩效的基本内容</t>
-  </si>
-  <si>
-    <t>领导绩效的作用</t>
-  </si>
-  <si>
-    <t>领导绩效考评的概念</t>
-  </si>
-  <si>
-    <t>领导绩效考评的类型-层次不同</t>
-  </si>
-  <si>
-    <t>领导绩效考评的类型-主体不同</t>
-  </si>
-  <si>
-    <t>领导绩效考评的类型-时间不同</t>
-  </si>
-  <si>
-    <t>领导绩效考评的类型-对象工作性质不同</t>
-  </si>
-  <si>
-    <t>领导绩效考评的类型-方式不同</t>
-  </si>
-  <si>
-    <t>领导绩效考评的类型-目的不同</t>
-  </si>
-  <si>
-    <t>领导绩效考评的意义</t>
-  </si>
-  <si>
-    <t>领导绩效考评的内容</t>
-  </si>
-  <si>
-    <t>目标对照法的含义</t>
-  </si>
-  <si>
-    <t>比较考评发的含义</t>
-  </si>
-  <si>
-    <t>统计分析法的含义</t>
-  </si>
-  <si>
-    <t>自我述职法的含义</t>
-  </si>
-  <si>
-    <t>模拟考评法的含义</t>
-  </si>
-  <si>
-    <t>领导绩效考评的【原则】</t>
-  </si>
-  <si>
-    <t>领导绩效考评的【程序】</t>
-  </si>
-  <si>
-    <t>领导绩效考评的【基本方法】</t>
-  </si>
-  <si>
-    <t>领导绩效考评的【具体方法】</t>
-  </si>
-  <si>
-    <t>当前中国领导绩效考核存在的问题及其改进的方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者在领导工作中，提高人们的思想觉悟，调用积极性的一种手段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是指中国中国共产党基本路线和方正的教育，爱国主义教育，形势任务教育</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法治</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思主义基本理论</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱国主义教育</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式和任务教育</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主与法治</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想遇到的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>党的路线方正政策</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱国主义和社会主义教育</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式和任务的教育</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本路线政策与方针政策教育</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向思想教育对象，讲解有关理论和道理，以说理说服对方，转变思想的一种方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对教育对象，情感交流，以情感去感动对方，转变思想的一找那个方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>个别引导法的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对个别对象，采用各种方式，因时因地的各种方式进行思想教育工作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对对象用心理学的方法，认识到自己的的问题根源，挖掘潜力，提高自己的认知的一种方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>以先进人物的先进思想的一种方式来教育对方，提高对方思想觉悟的一种方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自我学习，自我提高修养的一种方式不断完善自己的思想品德</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏通</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>引到</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集思广益，把心里话说出来</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>循循善诱，说服教育的方法，把不正确的思想引导正确的是想上</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持，疏导，疏通，引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论联系实际</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表扬和批评</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神奖励和物质奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想问题和实际问题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合业务一道做</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>言传身教结合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>循循善诱，循序渐进</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想教育，行政管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>说理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜样</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>心里</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力划分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导干部管理的制度安排</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根本性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自上而下的权力层级和数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接指挥下属的数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然属性，领导体制的普遍性，社会属性，领导体制的特殊性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标性，统一性，适应性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接领导，职能式领导，复合式，举证，置业部</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务的性质</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作的难易程度和近似度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织中成员的素质</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者的能力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织的凝聚力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导信息系统和技术的先进性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行机构</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督机构</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导活动有序开展的保障，领导目标实现的手段，制约着领导主体，觉得这领导的绩效，组织未来的命运</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大问题的决定权在上级领导手中，下级对上级有无条件的服从</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>下级领导在管辖范围内有一定的自主权，上级对下级不得随意干扰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一领导层次的各级机关，均受上层领导统一指挥控制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分权制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一层领导收到两个以上不同的领导机关控制指挥的机制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一长制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>委员会制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定最高决策权在一位领导者掌握</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定最高决策权在两位以上的领导组成的委员会掌握</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>职能制的含义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导机会在纵向上划分诺肝层，每一层对上一层负责，类似于金字塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据业务不同设立不同职能部门，辅助领导机关的实施领导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>政党政治，政党竞选制，实行轮流执行，政党来集中统治阶级的意志，协调矛盾，处理政府机关活动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>议会制，由群众普选代表，负责法律和国家大事</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首长制，负责行政事务，但是权力限于议会收到司法议会的限制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三权分立，立法权，行政，司法，由议会，总统，法院执行，相互制约</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自上而下的资质结构，分权管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集权制与分权制的特优缺点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速高效的处理上一级的任务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将有用的资源分离分配</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活性差</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上级依赖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法调动积极性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效，灵活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以培养新人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调动下级的积极性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止官僚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>很难统一管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易出现本位主义</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织之间差距被拉开</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例与协调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一指挥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止各自为政</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源统筹全局</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易独裁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免独裁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调动积极性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养新人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞争</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民群众主人地位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共为核心</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央集权统一领导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导权集中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导体制建设邂逅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构不尽合理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公正</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导制度建设发指挥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导组织机构设置合理化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>政党关系规范化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导权力划分科学化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>与职位相符的领导主体，为了履行领导职责，所具备的价值理念行为能力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自治性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施有效领导的基础</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导力的基础</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定着领导绩效的高低</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴衰存亡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者从事领导活动所具备的政治立场，政治观念，政治态度，正式品质</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者的品德修养，道德规范</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>做好工作所具备的基础知识和专业知识</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇高的政治理想，高度的政治责任感，理性的民主政治自觉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握法律知识，具有法律意识，注重职务守法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学的决策能力，知人善任的能力，激励能力，沟通能力，创新能力，危机管理能力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚于国家人民，公正廉洁，勤政尽职，严于律己宽以待人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础知识，专业知识，辅助知识</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富权力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作生活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>气质</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确认识自我，快熔他人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确看待财富权力，保持从容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确对待工作和生活，避免浮躁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意气质，融入环境</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重视学习</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>注重实践</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意自省</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>健全制度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>各领导之间按一定关系组合在一起的集体领导整体</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体，相关，目的，稳定，适应</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄结构要阶梯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识结构要合理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力结构要互补</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>气质结构要协调</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>互补性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>静感性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>转变观念是前提</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞好后背队伍建设是基础</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强集体自身建设是根本</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善干部管理制度是保证</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者履行职责，完成领导目标，所需要的方法，手段的综合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观性，动态性，目的性，条件性，时效性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导方法在领导活动中处于中介地位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学的领导方法是提高效率的推进器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学的领导方法是现代领导的必备条件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的性原则，创造性原则，具体性原则，高效性原则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>预见性，长远性，综合性，全局性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,345 +2409,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2084,255 +2452,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2357,62 +2483,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2699,24 +2790,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +2824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2750,7 +2841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2767,7 +2858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2783,7 +2874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2794,7 +2885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2816,7 +2907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2827,7 +2918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2835,7 +2926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="5:8">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2843,573 +2934,590 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="8:8">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="8:8">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H16" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -3417,7 +3525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3446,7 +3554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
@@ -3475,7 +3583,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -3501,7 +3609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -3524,7 +3632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -3532,7 +3640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -3543,7 +3651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -3554,7 +3662,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -3562,7 +3670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -3570,12 +3678,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
@@ -3583,7 +3691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>91</v>
       </c>
@@ -3591,12 +3699,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
@@ -3604,7 +3712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>96</v>
       </c>
@@ -3612,7 +3720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
@@ -3620,7 +3728,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -3628,7 +3736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
@@ -3636,7 +3744,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>104</v>
       </c>
@@ -3644,7 +3752,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -3652,7 +3760,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -3660,7 +3768,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
@@ -3668,7 +3776,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -3676,7 +3784,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>114</v>
       </c>
@@ -3684,48 +3792,47 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E26" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E27" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E28" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E29" s="6" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -3739,7 +3846,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -3756,7 +3863,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -3770,7 +3877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -3781,7 +3888,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
@@ -3792,7 +3899,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
@@ -3803,7 +3910,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>141</v>
       </c>
@@ -3814,7 +3921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
@@ -3822,7 +3929,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
@@ -3830,7 +3937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
         <v>148</v>
       </c>
@@ -3838,43 +3945,42 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="6:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="6:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="6:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
@@ -3885,7 +3991,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3896,7 +4002,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
@@ -3904,7 +4010,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
@@ -3915,7 +4021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
@@ -3923,7 +4029,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
@@ -3937,7 +4043,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>170</v>
       </c>
@@ -3951,7 +4057,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
@@ -3962,7 +4068,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>176</v>
       </c>
@@ -3976,7 +4082,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>161</v>
       </c>
@@ -3990,10 +4096,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>183</v>
       </c>
@@ -4007,7 +4113,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>187</v>
       </c>
@@ -4018,7 +4124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>190</v>
       </c>
@@ -4029,7 +4135,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>193</v>
       </c>
@@ -4046,7 +4152,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>198</v>
       </c>
@@ -4057,7 +4163,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="13:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="M17" s="1" t="s">
         <v>201</v>
       </c>
@@ -4065,7 +4171,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
@@ -4079,7 +4185,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>207</v>
       </c>
@@ -4093,7 +4199,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>211</v>
       </c>
@@ -4104,12 +4210,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>215</v>
       </c>
@@ -4126,7 +4232,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>220</v>
       </c>
@@ -4143,7 +4249,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>225</v>
       </c>
@@ -4160,7 +4266,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="6:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
         <v>230</v>
       </c>
@@ -4174,37 +4280,36 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="L26" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -4212,7 +4317,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>238</v>
       </c>
@@ -4232,7 +4337,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>244</v>
       </c>
@@ -4252,7 +4357,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>250</v>
       </c>
@@ -4260,7 +4365,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>252</v>
       </c>
@@ -4268,7 +4373,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>254</v>
       </c>
@@ -4276,7 +4381,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>256</v>
       </c>
@@ -4284,12 +4389,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>259</v>
       </c>
@@ -4306,7 +4411,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>264</v>
       </c>
@@ -4317,7 +4422,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>267</v>
       </c>
@@ -4328,7 +4433,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>270</v>
       </c>
@@ -4339,7 +4444,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>273</v>
       </c>
@@ -4350,7 +4455,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>276</v>
       </c>
@@ -4361,7 +4466,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>279</v>
       </c>
@@ -4369,7 +4474,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>281</v>
       </c>
@@ -4377,12 +4482,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>284</v>
       </c>
@@ -4393,12 +4498,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L21" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>288</v>
       </c>
@@ -4406,7 +4511,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>290</v>
       </c>
@@ -4414,7 +4519,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>292</v>
       </c>
@@ -4425,7 +4530,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>294</v>
       </c>
@@ -4433,7 +4538,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>296</v>
       </c>
@@ -4444,7 +4549,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>298</v>
       </c>
@@ -4452,7 +4557,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -4466,7 +4571,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>304</v>
       </c>
@@ -4480,7 +4585,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>308</v>
       </c>
@@ -4497,7 +4602,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>313</v>
       </c>
@@ -4514,7 +4619,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>318</v>
       </c>
@@ -4528,7 +4633,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>322</v>
       </c>
@@ -4539,7 +4644,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>325</v>
       </c>
@@ -4547,7 +4652,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>327</v>
       </c>
@@ -4556,28 +4661,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>329</v>
       </c>
@@ -4597,7 +4701,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>335</v>
       </c>
@@ -4617,7 +4721,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>341</v>
       </c>
@@ -4640,7 +4744,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>348</v>
       </c>
@@ -4648,7 +4752,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="7:11">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G5" s="1" t="s">
         <v>350</v>
       </c>
@@ -4656,7 +4760,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>352</v>
       </c>
@@ -4670,7 +4774,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>356</v>
       </c>
@@ -4684,7 +4788,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>360</v>
       </c>
@@ -4695,7 +4799,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>363</v>
       </c>
@@ -4703,7 +4807,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>365</v>
       </c>
@@ -4717,20 +4821,20 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>371</v>
       </c>
@@ -4738,7 +4842,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>373</v>
       </c>
@@ -4746,7 +4850,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>375</v>
       </c>
@@ -4754,7 +4858,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>377</v>
       </c>
@@ -4762,7 +4866,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>379</v>
       </c>
@@ -4770,7 +4874,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>381</v>
       </c>
@@ -4778,7 +4882,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>383</v>
       </c>
@@ -4786,12 +4890,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>386</v>
       </c>
@@ -4802,7 +4906,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>389</v>
       </c>
@@ -4813,7 +4917,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="5:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="5" t="s">
         <v>392</v>
       </c>
@@ -4821,7 +4925,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="5" t="s">
         <v>394</v>
       </c>
@@ -4829,7 +4933,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="5" t="s">
         <v>396</v>
       </c>
@@ -4837,394 +4941,936 @@
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E29" s="5" t="s">
         <v>400</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>401</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N4" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="F5" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="F6" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="N7" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="E8" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="E9" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="E11" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="E12" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="E14" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="E15" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="E16" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="E18" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="I19" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="E20" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>420</v>
+      <c r="E21" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E22" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E23" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E24" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E25" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="E3" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="E4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="E5" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="E6" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="E7" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="K8" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="E9" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="E10" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="O20" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="E21" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="E23" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="E24" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="E25" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="K26" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="E27" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="E28" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="E29" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>443</v>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E31" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="E32" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E34" s="9" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M4" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="F10" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="F11" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="F12" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="F13" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="F14" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="F15" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="F16" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F17" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="F18" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="F19" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="K20" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="F21" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="F22" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>463</v>
+      <c r="F23" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F24" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H25" s="9" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/glkx/glkx.xlsx
+++ b/glkx/glkx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\glkx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92FF057-CF8D-4CD9-9D9A-04437DAE2098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A87E37D-3BEF-4FBD-857C-AE43AF34C48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一章 绪论" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="第八章 领导体制" sheetId="8" r:id="rId8"/>
     <sheet name="第九章 领导者的素质" sheetId="9" r:id="rId9"/>
     <sheet name="第十章 领导方法" sheetId="10" r:id="rId10"/>
-    <sheet name="第十一章" sheetId="11" r:id="rId11"/>
-    <sheet name="第十二章" sheetId="12" r:id="rId12"/>
+    <sheet name="第十一章 领导艺术" sheetId="11" r:id="rId11"/>
+    <sheet name="第十二章 领导作风" sheetId="12" r:id="rId12"/>
     <sheet name="第十三章" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="807">
   <si>
     <t>现代领导发展的基本趋势</t>
   </si>
@@ -1510,9 +1510,6 @@
     <t>突发性事件的含义</t>
   </si>
   <si>
-    <t>领导授权的类型</t>
-  </si>
-  <si>
     <t>正副职的关系定位</t>
   </si>
   <si>
@@ -1630,9 +1627,6 @@
     <t>领导绩效考评的意义</t>
   </si>
   <si>
-    <t>领导绩效考评的内容</t>
-  </si>
-  <si>
     <t>目标对照法的含义</t>
   </si>
   <si>
@@ -2352,6 +2346,378 @@
   </si>
   <si>
     <t>预见性，长远性，综合性，全局性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特性，求异性，灵活性，敏捷性，跳跃性，联动性，综合性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌生原理，逆向原理，聚焦原理，综合原理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较抽象概括的方法，分析综合，归纳演义的方法，抽象具体，历史逻辑统一的方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体性思维，动态性思维，结构性思维</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确认识过去现在未来之间的本质联系，找到规律，完善预见能力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发挥个人的直接，灵感，想象力，进行创造性思维，发挥集体智慧进行创造性思维，信息交合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据一定调查目的，在调查对象中，通过科学分析对有一定规律的对象，选择若干个体，进行深入研究</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在调查对象中，抽取一部分进行调查分析，通过个别推论全部</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部个体进行无遗漏的调查</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>从领导活动的整体性出发，根据领导活动的空间结构，运行过程进行最优设计，从而实现最有效率的科学方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过信息的观点，把系统看做，输入，传递，加工，反馈，从而实现目标性活动的一种方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>把人的行为，目的，生理基础与电子，机械运动结合起来，通过解决控制与被控制的矛盾，似的稳定进行的一种方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切从实际出发，调查研究，按辩证法的规律办事 ，坚持群众路线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统论，控制论，信息论</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导在履行领导职责的过程中，灵活运用，领导原则，领导条件，领导方法的技能技巧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导科学，领导经验，领导方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性与共性，科学与经验，清晰与模糊，规范与创造性，原则和灵活</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在领导的范围内，委托下属处理事物的权力，在其监督下拥有自主行动权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向下属提出要做什么，和达到的目标，至于下属怎么处理，领导不加干预</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导自己做的，和不知道怎么做的都交给下属来处理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者对授权的事务有明确的规定，被领导者必须严格遵循</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者将部分事务通过口头的方式通知下属</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出常规，具有较大影响的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导授权的类型，根据授权的具体内容划分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导授权的类型，根据授权行为的形式划分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚性，惰性，模糊，弹性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头和书面，个人和群体，长期和短期，逐级和越级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担的角色责任不同，但是属于同一个领导集体，组织，上下级，工作，协作，从程序，集中和民主</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>超前，有效，善后</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>突发性，不确定型，危害性，扩散性，集聚性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕目标，明确要求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>因事择人，视能授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握尺度，适度授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊重分工，逐级授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主监督，公开授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化责任，可控授权</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待，谈判 ，表扬批评，劝说疏导，电话蜀汉的沟通</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中时间，节约时间，扩大时间的容量，又花时间利用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格会议的作风，控制进程，解决问题，指定守则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认时间性质</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>以人为本，救人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动出击，控制事态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握全局</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>打破常规，创造性化解危机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强沟通，主导晕轮</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合资源，协力行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>山后，避免重蹈覆辙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正科为了自己的权力，耍弄计谋的行为</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的不同，性质不同，行为不铜，趋势不同</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持领导艺术的先进性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高科学性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强创造性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>把我规律性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在领导活动中表现出来的，稳定性，习惯性，态度言行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属性，行业性，外在性，时代性，稳定性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是世界观，人生观，价值观的体现，社会主义条件下，是共产党党性原则的体现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导性质的保证，领导影响力的，群众积极性的保证，党风的保证</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放思想，实事求是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>密切联系人民群众</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持执行民主集中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉洁奉公，艰苦风斗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>教条，经验，官僚，形式，享乐，拜金，宗派</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论学习，教育培训，完善制度，监督，优化环境</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导主体在一定时间内试试领导活动取得的成果综合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观性，综合性，动态性，具体性，公共性，基础性，继承性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用人，决策，办事，时间，整体贡献</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导活动的触发归宿点，能力的尺度，品论选拔的依据，领导发展的驱动力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据特定的考评主体，按照规则，采取方法，根据程序，对绩效进行评价的过程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中低</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上，同，下，职能，专家，群众，自我</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常，年终，年中，临时，定期任中，任满，阶段</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导，立法，司法，行政，企业，社会，事业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定性，定量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断，坚定，评价，监督</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导活动的正确导向</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导活动的监督</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导制度的创新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导作风</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导素质</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导绩效考评的内容-领导者个体绩效的考评</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导绩效考评的内容-领导者集体绩效的考评</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>德，能，勤，绩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策，用人，办事，贡献</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过领导制定的目标，与别考评者绩效的目标进行比较</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一定的参照来对比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目标量化，称为指标，对比工作实际成果，运用统计的方法进行绩效考个的一种方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导者对一定工作时间内的成果做出评估并汇报的一种方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过模拟场景，同时运用各种方法，对结果进行考聘的方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观，民主，全面，实际，科学规范</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备，实施，结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导，群众，定性，定量，平时，定期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查研究，名义测验，目标对照，比较考聘，专家考聘，统计分析，自我述职，模拟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2359,7 +2725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2435,6 +2801,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2458,7 +2831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2490,6 +2863,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2980,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2994,10 +3370,10 @@
         <v>457</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3005,10 +3381,10 @@
         <v>458</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>710</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -3016,7 +3392,7 @@
         <v>459</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -3024,115 +3400,156 @@
         <v>460</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E6" s="9" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>464</v>
       </c>
+      <c r="E9" s="9" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>465</v>
       </c>
+      <c r="E10" s="9" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>466</v>
       </c>
+      <c r="E11" s="9" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>467</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>469</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="9" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="9" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3144,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3155,124 +3572,250 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="M10" s="9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="D15" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="D16" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="D17" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="I18" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="D19" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="I20" s="9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="D21" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="D22" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="I23" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="I24" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="D26" s="9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="D27" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>505</v>
+      <c r="D28" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D29" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D30" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D31" s="9" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -3283,10 +3826,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3294,74 +3837,113 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="D6" s="9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="D7" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="D8" s="9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="D9" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>519</v>
+      <c r="D16" s="9" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -3372,10 +3954,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3383,119 +3965,208 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="9" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="E8" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="E9" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="E11" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="E12" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="K13" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="E17" s="9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="E18" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="E19" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="E20" s="9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="E21" s="9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="E23" s="9" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="E24" s="9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="E25" s="9" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="E26" s="9" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4988,10 +5659,10 @@
         <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -4999,15 +5670,15 @@
         <v>404</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N4" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -5015,10 +5686,10 @@
         <v>405</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -5026,16 +5697,16 @@
         <v>406</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="N6" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -5043,7 +5714,7 @@
         <v>407</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -5051,13 +5722,13 @@
         <v>408</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -5065,13 +5736,13 @@
         <v>409</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -5079,7 +5750,7 @@
         <v>410</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -5087,15 +5758,15 @@
         <v>411</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -5103,7 +5774,7 @@
         <v>412</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -5111,7 +5782,7 @@
         <v>413</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -5119,7 +5790,7 @@
         <v>414</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -5131,13 +5802,13 @@
         <v>415</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -5145,13 +5816,13 @@
         <v>416</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M19" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="N19" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -5159,16 +5830,16 @@
         <v>417</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M20" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -5176,42 +5847,42 @@
         <v>418</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E22" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E23" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E24" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E25" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5238,13 +5909,13 @@
         <v>419</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -5252,10 +5923,10 @@
         <v>420</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -5263,13 +5934,13 @@
         <v>421</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -5277,13 +5948,13 @@
         <v>422</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -5291,10 +5962,10 @@
         <v>423</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -5302,10 +5973,10 @@
         <v>424</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -5313,10 +5984,10 @@
         <v>425</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -5324,7 +5995,7 @@
         <v>426</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -5332,10 +6003,10 @@
         <v>427</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -5343,119 +6014,119 @@
         <v>428</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N14" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="R14" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>616</v>
-      </c>
       <c r="O16" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="S17" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>620</v>
-      </c>
       <c r="O18" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="O19" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="E20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -5463,21 +6134,21 @@
         <v>429</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -5485,19 +6156,19 @@
         <v>430</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -5505,16 +6176,16 @@
         <v>431</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -5522,24 +6193,24 @@
         <v>432</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="K26" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -5547,16 +6218,16 @@
         <v>433</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -5564,16 +6235,16 @@
         <v>434</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -5581,10 +6252,10 @@
         <v>435</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
@@ -5594,22 +6265,22 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E31" s="9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="E32" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E33" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E34" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -5636,10 +6307,10 @@
         <v>437</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -5647,16 +6318,16 @@
         <v>438</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>671</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -5664,12 +6335,12 @@
         <v>439</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="M4" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -5677,7 +6348,7 @@
         <v>440</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -5685,7 +6356,7 @@
         <v>441</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -5693,7 +6364,7 @@
         <v>442</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -5705,7 +6376,7 @@
         <v>443</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -5713,7 +6384,7 @@
         <v>444</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -5721,7 +6392,7 @@
         <v>445</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -5729,7 +6400,7 @@
         <v>446</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -5737,10 +6408,10 @@
         <v>447</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -5748,13 +6419,13 @@
         <v>448</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -5762,13 +6433,13 @@
         <v>449</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -5776,21 +6447,21 @@
         <v>450</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F17" s="9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -5798,10 +6469,10 @@
         <v>451</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>695</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -5809,10 +6480,10 @@
         <v>452</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -5820,7 +6491,7 @@
         <v>453</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -5828,10 +6499,10 @@
         <v>454</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -5839,10 +6510,10 @@
         <v>455</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -5850,23 +6521,23 @@
         <v>456</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F24" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H25" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
